--- a/data/hotels_by_city/Houston/Houston_shard_236.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_236.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="599">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d223147-Reviews-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
   </si>
   <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Fairfield-Inn-Suites-Houston-Energy-CorridorKaty-Freeway.h68029.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1699 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r575522978-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223147</t>
+  </si>
+  <si>
+    <t>575522978</t>
+  </si>
+  <si>
+    <t>04/24/2018</t>
+  </si>
+  <si>
+    <t>Very pleased with the stay!</t>
+  </si>
+  <si>
+    <t>This was my 1st visiting Houston and wanted to stay somewhere that was easily accessible. Up one arriving I notice that the staff was amazing. All request were met almost immediately. The location was peaceful with no issues. The bed was comfortable and very high off of the floor lol. I didn’t eat breakfast here so I can’t say if it was good or bad. I can say that this was a very excellent location in terms of going from 1 attraction site to another. I can’t complainant the staff enough,give the all raises! Lol...at one point of he trip I needed a screwdriver for toy that I brought my son and the nice lady went above and beyond to find the correct tool. I will most definitely stay here in the future. Keep up the GREAT WORK!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Arthur M, General Manager at Fairfield Inn &amp; Suites Houston Energy Corridor/Katy Freeway, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>This was my 1st visiting Houston and wanted to stay somewhere that was easily accessible. Up one arriving I notice that the staff was amazing. All request were met almost immediately. The location was peaceful with no issues. The bed was comfortable and very high off of the floor lol. I didn’t eat breakfast here so I can’t say if it was good or bad. I can say that this was a very excellent location in terms of going from 1 attraction site to another. I can’t complainant the staff enough,give the all raises! Lol...at one point of he trip I needed a screwdriver for toy that I brought my son and the nice lady went above and beyond to find the correct tool. I will most definitely stay here in the future. Keep up the GREAT WORK!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r569982921-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569982921</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>Arrival Lacking</t>
+  </si>
+  <si>
+    <t>Pros: The room I stayed in was very clean. Free WiFi worked great. Late Night front desk agent was friendly and helpful. I skipped the free breakfast this time but have had it in the past and is very good. I requested a 1pm late check out with the night time person and was not disturbed to the moment I left.
+Cons: My largest complaint came during check in. The hotel was not busy and very slow but I had to wait several minutes for the check in agent to wrap up her previous task. I then had to wait more minutes for the agent to qualify my rate before receiving my keys (at other hotels this had usually been done after check in I assume). So ultimately about an 8 minute wait from walking in to getting to my room with no line. When I get to my room, I find my requests were not honored (low floor, near exit) and not mentioned. I was still ok with this but the A/C making a VERY LOUD mechanical noise and sounded broken. I went back down and had to wait several minutes for the front desk to return and request a new room. And I was given a perfect room with my original request! (low floor, near exit).I wonder why I wasn't given this room originally. Finally, during this process I was not informed about anything in the hotel (breakfast...Pros: The room I stayed in was very clean. Free WiFi worked great. Late Night front desk agent was friendly and helpful. I skipped the free breakfast this time but have had it in the past and is very good. I requested a 1pm late check out with the night time person and was not disturbed to the moment I left.Cons: My largest complaint came during check in. The hotel was not busy and very slow but I had to wait several minutes for the check in agent to wrap up her previous task. I then had to wait more minutes for the agent to qualify my rate before receiving my keys (at other hotels this had usually been done after check in I assume). So ultimately about an 8 minute wait from walking in to getting to my room with no line. When I get to my room, I find my requests were not honored (low floor, near exit) and not mentioned. I was still ok with this but the A/C making a VERY LOUD mechanical noise and sounded broken. I went back down and had to wait several minutes for the front desk to return and request a new room. And I was given a perfect room with my original request! (low floor, near exit).I wonder why I wasn't given this room originally. Finally, during this process I was not informed about anything in the hotel (breakfast hours, wifi, gym, etc) and had to find this on my own.Ultimately, I felt I was given less priority service due to my discounted rate.Aagain, I can not stress enough how everything else was great, Fairfield Inns are one of my favorite brands but I believed the welcome to be lacking and had I paid a higher rate I would have made a bigger deal during my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Arthur M, General Manager at Fairfield Inn &amp; Suites Houston Energy Corridor/Katy Freeway, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Pros: The room I stayed in was very clean. Free WiFi worked great. Late Night front desk agent was friendly and helpful. I skipped the free breakfast this time but have had it in the past and is very good. I requested a 1pm late check out with the night time person and was not disturbed to the moment I left.
+Cons: My largest complaint came during check in. The hotel was not busy and very slow but I had to wait several minutes for the check in agent to wrap up her previous task. I then had to wait more minutes for the agent to qualify my rate before receiving my keys (at other hotels this had usually been done after check in I assume). So ultimately about an 8 minute wait from walking in to getting to my room with no line. When I get to my room, I find my requests were not honored (low floor, near exit) and not mentioned. I was still ok with this but the A/C making a VERY LOUD mechanical noise and sounded broken. I went back down and had to wait several minutes for the front desk to return and request a new room. And I was given a perfect room with my original request! (low floor, near exit).I wonder why I wasn't given this room originally. Finally, during this process I was not informed about anything in the hotel (breakfast...Pros: The room I stayed in was very clean. Free WiFi worked great. Late Night front desk agent was friendly and helpful. I skipped the free breakfast this time but have had it in the past and is very good. I requested a 1pm late check out with the night time person and was not disturbed to the moment I left.Cons: My largest complaint came during check in. The hotel was not busy and very slow but I had to wait several minutes for the check in agent to wrap up her previous task. I then had to wait more minutes for the agent to qualify my rate before receiving my keys (at other hotels this had usually been done after check in I assume). So ultimately about an 8 minute wait from walking in to getting to my room with no line. When I get to my room, I find my requests were not honored (low floor, near exit) and not mentioned. I was still ok with this but the A/C making a VERY LOUD mechanical noise and sounded broken. I went back down and had to wait several minutes for the front desk to return and request a new room. And I was given a perfect room with my original request! (low floor, near exit).I wonder why I wasn't given this room originally. Finally, during this process I was not informed about anything in the hotel (breakfast hours, wifi, gym, etc) and had to find this on my own.Ultimately, I felt I was given less priority service due to my discounted rate.Aagain, I can not stress enough how everything else was great, Fairfield Inns are one of my favorite brands but I believed the welcome to be lacking and had I paid a higher rate I would have made a bigger deal during my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r569195889-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569195889</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Barely a 3 ... almost a 2</t>
+  </si>
+  <si>
+    <t>This is an aging hotel in need of upgrades throughout.  It was completely booked when I arrived.  Both the check-in and check-out processes were slow because the front desk clerks had to do so much typing into the hotel's computer system.  There was only 1 elevator which made wait times too long.  My room had been given a quick-but-not thorough cleaning.  The mattress was ready for replacement.  The windows in my room did not block out the noise of vehicles on I-10 late at night. The laundry room was not clean, either. The washer and dryer cost $ 2 each as did a single-use box of Tide at the front desk.  The breakfast ingredients were just average.  I expressed these comments on Marriott's follow up email and the hotel management did reply promptly.  That is why I raised this rating to a 3.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Arthur M, General Manager at Fairfield Inn &amp; Suites Houston Energy Corridor/Katy Freeway, responded to this reviewResponded March 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2018</t>
+  </si>
+  <si>
+    <t>This is an aging hotel in need of upgrades throughout.  It was completely booked when I arrived.  Both the check-in and check-out processes were slow because the front desk clerks had to do so much typing into the hotel's computer system.  There was only 1 elevator which made wait times too long.  My room had been given a quick-but-not thorough cleaning.  The mattress was ready for replacement.  The windows in my room did not block out the noise of vehicles on I-10 late at night. The laundry room was not clean, either. The washer and dryer cost $ 2 each as did a single-use box of Tide at the front desk.  The breakfast ingredients were just average.  I expressed these comments on Marriott's follow up email and the hotel management did reply promptly.  That is why I raised this rating to a 3.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r552338700-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>552338700</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>Noisy bed</t>
+  </si>
+  <si>
+    <t>The room was clean, but the bed was was very noisy every time I sat on the bed or turned it would make noise. In the shower the handle to the shower came off when I was trying to take a shower. I told the front desk when I check out but they offered me "points". for my next stay. The breakfast could use some improvement.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>The room was clean, but the bed was was very noisy every time I sat on the bed or turned it would make noise. In the shower the handle to the shower came off when I was trying to take a shower. I told the front desk when I check out but they offered me "points". for my next stay. The breakfast could use some improvement.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r550308652-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>550308652</t>
+  </si>
+  <si>
+    <t>12/30/2017</t>
+  </si>
+  <si>
+    <t>Quick Night Rest . . .</t>
+  </si>
+  <si>
+    <t>before heading home after a late night flight.  The hotel was quiet, not crowded, and well decorated.  By morning, it seemed as though the crowd had grown in a matter of 5 hours.  We rested well.  Easy location on the west side of Houston, which made for a quick escape from the work traffic.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Cheriee W, Assistant General Manager at Fairfield Inn &amp; Suites Houston Energy Corridor/Katy Freeway, responded to this reviewResponded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2018</t>
+  </si>
+  <si>
+    <t>before heading home after a late night flight.  The hotel was quiet, not crowded, and well decorated.  By morning, it seemed as though the crowd had grown in a matter of 5 hours.  We rested well.  Easy location on the west side of Houston, which made for a quick escape from the work traffic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r540202554-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540202554</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t>Typical Fairfield</t>
+  </si>
+  <si>
+    <t>GREAT staff at this location.  Front desk staff was very helpful.  Breakfast good--nice variety and well-stocked.  Our room clean but older, and could use some updating.  The bed comfortable, and the room quite large.   Everything was clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Energy Corridor/Katy Freeway, responded to this reviewResponded November 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2017</t>
+  </si>
+  <si>
+    <t>GREAT staff at this location.  Front desk staff was very helpful.  Breakfast good--nice variety and well-stocked.  Our room clean but older, and could use some updating.  The bed comfortable, and the room quite large.   Everything was clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r455772471-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>455772471</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>Good hotel, great staff</t>
+  </si>
+  <si>
+    <t>We stopped for one night on our way to Austin. Hotel is fine, thought tricky to get to if unfamiliar with Texas' "go across three or four lanes within 100 yards to exit". Suggest asking for an odd numbered room. Those face the back of the property. The even numbers face I10 and you'll hear noise from highway all night.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Energy Corridor/Katy Freeway, responded to this reviewResponded February 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2017</t>
+  </si>
+  <si>
+    <t>We stopped for one night on our way to Austin. Hotel is fine, thought tricky to get to if unfamiliar with Texas' "go across three or four lanes within 100 yards to exit". Suggest asking for an odd numbered room. Those face the back of the property. The even numbers face I10 and you'll hear noise from highway all night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r446457390-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>446457390</t>
+  </si>
+  <si>
+    <t>12/24/2016</t>
+  </si>
+  <si>
+    <t>Good Location For My Purposes</t>
+  </si>
+  <si>
+    <t>Older hotel tucked into area of other older places along I10 near Hwy 6. MDA Diagnostics Center a few blocks away. Well maintained and clean. Remodeling taking place on first floor during our visit. Some noise. Lots of restaurants up and down I10. Nice staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Energy Corridor/Katy Freeway, responded to this reviewResponded December 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 25, 2016</t>
+  </si>
+  <si>
+    <t>Older hotel tucked into area of other older places along I10 near Hwy 6. MDA Diagnostics Center a few blocks away. Well maintained and clean. Remodeling taking place on first floor during our visit. Some noise. Lots of restaurants up and down I10. Nice staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r442456278-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442456278</t>
+  </si>
+  <si>
+    <t>12/06/2016</t>
+  </si>
+  <si>
+    <t>Exceptional Staff</t>
+  </si>
+  <si>
+    <t>We stop at this Fairfield Inn on our cross country travels.  Although on occasion we have found a few items in our room not up to Marriott standards, the staff ALWAYS takes our concerns very seriously.  Clearly, they want to be informed of any item of dissatisfaction no matter how minor (such as, Kleenex box being near empty or tub that does not drain well.  We are very particular about our accommodation standards and as such we always find the rooms are clean, linens fresh and inviting. Very nice breakfast.  Best feature of all is this Inn's staff with their 'we aim to please' attitude.  Any dissatisfaction that is brought to staff's attention is net with a "Thank you for informing us. This is not up to Marriott standards." Clearly this staff wants to correct issues and improve the quality of their hotel for the betterment of their guests. MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Energy Corridor/Katy Freeway, responded to this reviewResponded December 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2016</t>
+  </si>
+  <si>
+    <t>We stop at this Fairfield Inn on our cross country travels.  Although on occasion we have found a few items in our room not up to Marriott standards, the staff ALWAYS takes our concerns very seriously.  Clearly, they want to be informed of any item of dissatisfaction no matter how minor (such as, Kleenex box being near empty or tub that does not drain well.  We are very particular about our accommodation standards and as such we always find the rooms are clean, linens fresh and inviting. Very nice breakfast.  Best feature of all is this Inn's staff with their 'we aim to please' attitude.  Any dissatisfaction that is brought to staff's attention is net with a "Thank you for informing us. This is not up to Marriott standards." Clearly this staff wants to correct issues and improve the quality of their hotel for the betterment of their guests. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r431153869-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431153869</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Right off the expressway so highway noice is inevitable.</t>
+  </si>
+  <si>
+    <t>It was clean, smelled new, and was average.  Service was great as well. I would never constitute this as a luxury hotel. There is free breakfast and newspapers. Thanks so much for ensuring late check-in. MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Energy Corridor/Katy Freeway, responded to this reviewResponded October 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2016</t>
+  </si>
+  <si>
+    <t>It was clean, smelled new, and was average.  Service was great as well. I would never constitute this as a luxury hotel. There is free breakfast and newspapers. Thanks so much for ensuring late check-in. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r429259360-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>429259360</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>While dealing with family medical issues at MD Anderson, this hotel offered a nice break rate. The drawback is that it is so far away from MD Anderson. The staff was freindly and helpful. The free breaksfast offered is welcome as a break from the overwelming costs of cancer treatment. Room was clean and quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Energy Corridor/Katy Freeway, responded to this reviewResponded November 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2016</t>
+  </si>
+  <si>
+    <t>While dealing with family medical issues at MD Anderson, this hotel offered a nice break rate. The drawback is that it is so far away from MD Anderson. The staff was freindly and helpful. The free breaksfast offered is welcome as a break from the overwelming costs of cancer treatment. Room was clean and quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r407438310-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>407438310</t>
+  </si>
+  <si>
+    <t>08/19/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good </t>
+  </si>
+  <si>
+    <t>Service is very good and Evelyn at the floor desk is very kind and reactiveRooms are very cleanNo noisesA beautiful pool and clean laundryLike it and recommande itBreakfast is good and offers a lot of free products</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r388597233-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>388597233</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Nice Place...Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>The hotel is located near the freeway. It is a little difficult getting out of the hotel on to the freeway. Hotel is located near restaurant and a short drive to other shopping centers. Breakfast was basic (fruit, eggs, cereal, yogurt and pork sausage).Customer Service is excellent, everyone was very helpful. One side note: Although everyone was helpful, the women seem to know a little more than the guys. The room was say nice that I had a baby frog that wanted to check in but yes me and the attendance find a room for him back outside in his environment.Yes this place is worth the stay!!</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r381948440-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381948440</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>Great property and people.</t>
+  </si>
+  <si>
+    <t>As always I stay at Marriott property every chance I get, the main reason, the Hotels are always clean, customer service second to none, bed are always comfortable, It's always somewhere that's worth every penny.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r374342112-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374342112</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights. Check-in and kitchen staff were super nice and friendly. Lady at the breakfast bar was Crystal and she made the stay really pleasant. Chose this property as it was slightly outside of town yet still close to major stores like Walmart. Plenty of parking space. If coming back to Houston, would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r365816314-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365816314</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Where have all the hot tubs gone?</t>
+  </si>
+  <si>
+    <t>Staff was very attentive, rooms are what you would expect.  Before my visit, I had read that the pool was closed for renovation, opening the day after I arrived.  I asked if I could use the hot tub while the pool was being renovated.  I was told that the renovation was that the hot tub was being tiled over.  An employee of another Marriott who happened to be checking in, jumped in and said, "Corporate has ordered hot tubs be shut down at many properties due to liability." In a previous review, I mentioned the hot tub shut down at the Chicago Renaissance, so I'm sure this employee knew what he was talking about.  How nice of Marriott to short-change their guests.  I guess they're broke now that they've purchased Westin.  Shame on Corporate!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Staff was very attentive, rooms are what you would expect.  Before my visit, I had read that the pool was closed for renovation, opening the day after I arrived.  I asked if I could use the hot tub while the pool was being renovated.  I was told that the renovation was that the hot tub was being tiled over.  An employee of another Marriott who happened to be checking in, jumped in and said, "Corporate has ordered hot tubs be shut down at many properties due to liability." In a previous review, I mentioned the hot tub shut down at the Chicago Renaissance, so I'm sure this employee knew what he was talking about.  How nice of Marriott to short-change their guests.  I guess they're broke now that they've purchased Westin.  Shame on Corporate!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r354173330-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>354173330</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t>Good hotel and great staff!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Really enjoy our visit there, rooms are slightly smaller (compared to others Fairfield Inn) but clean and comfortable beds. Staff is really friendly,helpful and cheerful  (the lady in the reception helped us sorting out beds and a place to have dinner). Breakfast was good with a very nice lady ready to assist us. Swimming pool had a good size and was clean, unfortunately the hot tub was out of use. I'll definitely use this hotel again.  Location is good as well with good nearby restaurants. </t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r343592680-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>343592680</t>
+  </si>
+  <si>
+    <t>01/29/2016</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay</t>
+  </si>
+  <si>
+    <t>We made reservations online and were welcomed on our arrival.  Remodeling in progress but it wasn't an issue.  Room was clean but when we removed cushions from sofa to get to the bed ready for our children and we found a condom wrapper that had fallen between the cushions and also there were no sheets or blankets for the hide-a-bed.  I went to front desk to get sheets and blanket and just mentioned the other issue briefly.  He apologized and offered to move us to another room.  I told him that it was ok we would stay put because we were already unpacked, etc... just that maybe the cleaning personnel did not pull cushions and clean sofa when cleaning room.  Other than that the room was spotless.  The next morning... we had a knock on the door and a gentleman brought up 2 bottles of water with a note from the hotel management letting us know that they were very sorry for our minor inconveniences, that they took great pride in cleanliness and service, and the 2 night stay was taken care of at no charge.  Wow!!!  It wasn't expected and definitely not asked for.  But it did reaffirm our confidence in Fairfield Inn &amp; Suites as a great and reliable place to stay with my family.  Thank you Fairfield.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>We made reservations online and were welcomed on our arrival.  Remodeling in progress but it wasn't an issue.  Room was clean but when we removed cushions from sofa to get to the bed ready for our children and we found a condom wrapper that had fallen between the cushions and also there were no sheets or blankets for the hide-a-bed.  I went to front desk to get sheets and blanket and just mentioned the other issue briefly.  He apologized and offered to move us to another room.  I told him that it was ok we would stay put because we were already unpacked, etc... just that maybe the cleaning personnel did not pull cushions and clean sofa when cleaning room.  Other than that the room was spotless.  The next morning... we had a knock on the door and a gentleman brought up 2 bottles of water with a note from the hotel management letting us know that they were very sorry for our minor inconveniences, that they took great pride in cleanliness and service, and the 2 night stay was taken care of at no charge.  Wow!!!  It wasn't expected and definitely not asked for.  But it did reaffirm our confidence in Fairfield Inn &amp; Suites as a great and reliable place to stay with my family.  Thank you Fairfield.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r332262402-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>332262402</t>
+  </si>
+  <si>
+    <t>12/12/2015</t>
+  </si>
+  <si>
+    <t>Convenient for Business in the Energy Corridor</t>
+  </si>
+  <si>
+    <t>This was my first time here.  The staff was very friendly and acknowledged my Marriott Gold Elite Status and associated amenities. Later after I got to my room, they followed up with a call to ask if everything was OK.I found the room comfortable and the hotel clean.  The free breakfast was fine and met my needs.  i would stay here again!</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r328222253-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>328222253</t>
+  </si>
+  <si>
+    <t>11/21/2015</t>
+  </si>
+  <si>
+    <t>Cars!</t>
+  </si>
+  <si>
+    <t>A very nice Fairfield Inn.  The staff couldn't have been more accommodating.  The breakfast was good - waffles and sausage very good!They are in the midst of a remodel, but we never were disturbed by construction workers or noise.  The bed was not Marriott quality, to be honest.  It was hard and 'wobbled' when you moved in it.  The bedlinens were perfect, of course.This property is directly on the feeder to I10, and there are 10,000 cars an hour barreling through to get into Houston from the west.  If you are light sleeper (that would be me) then you had better demand a room at the rear of the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>A very nice Fairfield Inn.  The staff couldn't have been more accommodating.  The breakfast was good - waffles and sausage very good!They are in the midst of a remodel, but we never were disturbed by construction workers or noise.  The bed was not Marriott quality, to be honest.  It was hard and 'wobbled' when you moved in it.  The bedlinens were perfect, of course.This property is directly on the feeder to I10, and there are 10,000 cars an hour barreling through to get into Houston from the west.  If you are light sleeper (that would be me) then you had better demand a room at the rear of the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r322757075-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322757075</t>
+  </si>
+  <si>
+    <t>10/28/2015</t>
+  </si>
+  <si>
+    <t>Good room, location and pleasant staff</t>
+  </si>
+  <si>
+    <t>Stayed here two nights. Easy to find, easy to travel to places in Houston we wanted to visit. Good staff. The breakfast was excellent, well-supplied, good variety of hot and cold items. Staff was actively involved restocking every item before it ran out.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r289810740-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>289810740</t>
+  </si>
+  <si>
+    <t>07/17/2015</t>
+  </si>
+  <si>
+    <t>Great hotel great price in West Houston</t>
+  </si>
+  <si>
+    <t>I arrived for a business trip much earlier than expected and tried to check into the hotel at 9am so I could get to work at a desk. I was told by a very helpful and apologetic receptionist that check in wasn't till 3 but to try back around 11-12. I grabbed some breakfast at a panera close by and was able to work for a few hours and return around noon. She allowed me to check in and immediately after walking into my room the phone rang. It was her, verifying everything in my room was to my satisfaction and asking if she could do anything else for me. I'm a constant traveler and I've never once had a hotel do that, needless to say I was impressed. The room was nice, clean, and updated as well as the remainder of the hotel(gym, pool, spa, business center). The location was central to food and entertainment and the customer service was over the top. I visit Houston just about every 90 days and will definitely be back. The hotel had free breakfast and free parking to boot.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>I arrived for a business trip much earlier than expected and tried to check into the hotel at 9am so I could get to work at a desk. I was told by a very helpful and apologetic receptionist that check in wasn't till 3 but to try back around 11-12. I grabbed some breakfast at a panera close by and was able to work for a few hours and return around noon. She allowed me to check in and immediately after walking into my room the phone rang. It was her, verifying everything in my room was to my satisfaction and asking if she could do anything else for me. I'm a constant traveler and I've never once had a hotel do that, needless to say I was impressed. The room was nice, clean, and updated as well as the remainder of the hotel(gym, pool, spa, business center). The location was central to food and entertainment and the customer service was over the top. I visit Houston just about every 90 days and will definitely be back. The hotel had free breakfast and free parking to boot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r288686320-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>288686320</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>great stay....</t>
+  </si>
+  <si>
+    <t>stayed one day after a cruise and it's just perfect. very easy checking-in. clean and helpful staff. my kids love the indoor pool.  not bad exercise room. room is pretty good size and so with the bathroom.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r283009639-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>283009639</t>
+  </si>
+  <si>
+    <t>06/25/2015</t>
+  </si>
+  <si>
+    <t>Poor Customer Service at the Front Desk on 6/26/15, day shift</t>
+  </si>
+  <si>
+    <t>WE booked a room at a special rate and it was supposed to be a double room however the reservation stated King bed only.  The front desk rep, Montrell or Marcell or whoever it was that worked the desk on 6/24/15. I can't remember his exact name but he would not work with us and give us the rate that we had or even close to the rate we had to move us to a double room. We had already unpacked our bags, the kids were waiting in the lobby while i tried to get some help from him on the rate.  We were all tired and just wanted to get a room at a good rate.  He would not budge from a rate over $119.  I then sat in their lobby and made a reservation with  hilton for $50 + rewards points, several miles down the highway.I went to the Marriott site again and I then noticed that he could have given me a rate of $69 however he chose to stay above $119.  I've never had anyone at a front desk not work with me before.  Is that just the Marriott way?  They have just lost a Marriott customer.  I usually stay at Hilton anyway but chose Marriott because it was a better deal.  Never again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Energy Corridor/Katy Freeway, responded to this reviewResponded June 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2015</t>
+  </si>
+  <si>
+    <t>WE booked a room at a special rate and it was supposed to be a double room however the reservation stated King bed only.  The front desk rep, Montrell or Marcell or whoever it was that worked the desk on 6/24/15. I can't remember his exact name but he would not work with us and give us the rate that we had or even close to the rate we had to move us to a double room. We had already unpacked our bags, the kids were waiting in the lobby while i tried to get some help from him on the rate.  We were all tired and just wanted to get a room at a good rate.  He would not budge from a rate over $119.  I then sat in their lobby and made a reservation with  hilton for $50 + rewards points, several miles down the highway.I went to the Marriott site again and I then noticed that he could have given me a rate of $69 however he chose to stay above $119.  I've never had anyone at a front desk not work with me before.  Is that just the Marriott way?  They have just lost a Marriott customer.  I usually stay at Hilton anyway but chose Marriott because it was a better deal.  Never again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r277721774-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>277721774</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Quiet, clean, and convenient...</t>
+  </si>
+  <si>
+    <t>We stayed three nights at this Fairfield Inn and received top shelf assistance from all the staff, especially Candice. She pleasantly assisted us with additional reservations, recommendations for convenient local restaurants, and additional items that we needed. We come to Houston about every three months for medical visits at MDA plan to stay at this location again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r274085394-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274085394</t>
+  </si>
+  <si>
+    <t>05/23/2015</t>
+  </si>
+  <si>
+    <t>clean facilit and friendly staff</t>
+  </si>
+  <si>
+    <t>I will stay here again. Convenient location, easy access to all the major roads. Facility is updated and very nice with all the basic necessities. Reasonable rates and every staff person I met was extremely friendly.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r273606930-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273606930</t>
+  </si>
+  <si>
+    <t>05/21/2015</t>
+  </si>
+  <si>
+    <t>A pleasant oasis...</t>
+  </si>
+  <si>
+    <t>I stayed at this property the week of May 11, 2015.  The service was great, the hotel was quiet, and the rooms were clean.  Debra at the front desk was very pleasant and helpful.  Breakfast provided a great variety of food that was fresh, hot, and very tasty.  The pool area with hot tub and the weight room were well kept and provided great relaxation time. I would definitely stay at this hotel during my next visit to Houston and I would recommend it to family and friends.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r269106111-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>269106111</t>
+  </si>
+  <si>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>Lynne</t>
+  </si>
+  <si>
+    <t>Always a pleasure to stay here. Friendly  staff, convenient location, comfortable clean well appointed rooms  great breakfast variety  always  consistently confidant with my accommodations when staying in Houston because of this hotel n its staff</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r265497602-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265497602</t>
+  </si>
+  <si>
+    <t>04/13/2015</t>
+  </si>
+  <si>
+    <t>Vacation to Houston</t>
+  </si>
+  <si>
+    <t>Our family stayed for a week as visited Houston for the first time.  The staff couldn't have been nicer and the facility was clean and accessible off of I-10.  Nikki, who was in charge of the breakfast was extremely gracious and so friendly.  Great place to stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r265353415-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265353415</t>
+  </si>
+  <si>
+    <t>04/12/2015</t>
+  </si>
+  <si>
+    <t>Great one night stay!</t>
+  </si>
+  <si>
+    <t>This hotel was a pleasant surprise. The room was mid-size and clean. Very close to the freeway, but not noisy. The bf and I stayed here while visiting a job fair in North Houston. We were supposed to check out at 12 noon on Saturday, but the assistant manager (Ion) allowed us to check out later at 1:30 so we could catch up on some sleep before our drive back. Excellent customer service!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r261170725-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261170725</t>
+  </si>
+  <si>
+    <t>03/22/2015</t>
+  </si>
+  <si>
+    <t>Helpful &amp; positive staff</t>
+  </si>
+  <si>
+    <t>This is a shout-out to Sara at the front desk, who was great. I came by the hotel early to see if I could check in yet -- Sara told me unfortunately no, since it was still 15 minutes before checkout time so the room wasn't ready from the last guest, but that I could call in an hour or two to see what the status was ("official" check-in time was 3 hours away). I drove back in an hour because I had nothing else to do, and Sara checked on things for me. The room still wasn't ready (not a surprise! I was early!), so she went above and beyond to see if there was a different room in the same configuration that would work. She checked the computer, talked to housekeeping, and finally got me a room more than two hours earlier than I ought to have expected. That might not sound like much, but I was staying in Houston due to a medical procedure, had had a very long day (even by 1pm), was depressed, etc. -- Sara's positivity, helpfulness, and compassion meant a lot. Thank you.
+The room was clean, and nicely decorated &amp; sized for the level of the hotel chain. There were both firm and soft pillows, which I like because I'm a soft-pillow person and so often hotels only have the really firm ones. It's the small comforts in life... I didn't notice...This is a shout-out to Sara at the front desk, who was great. I came by the hotel early to see if I could check in yet -- Sara told me unfortunately no, since it was still 15 minutes before checkout time so the room wasn't ready from the last guest, but that I could call in an hour or two to see what the status was ("official" check-in time was 3 hours away). I drove back in an hour because I had nothing else to do, and Sara checked on things for me. The room still wasn't ready (not a surprise! I was early!), so she went above and beyond to see if there was a different room in the same configuration that would work. She checked the computer, talked to housekeeping, and finally got me a room more than two hours earlier than I ought to have expected. That might not sound like much, but I was staying in Houston due to a medical procedure, had had a very long day (even by 1pm), was depressed, etc. -- Sara's positivity, helpfulness, and compassion meant a lot. Thank you.The room was clean, and nicely decorated &amp; sized for the level of the hotel chain. There were both firm and soft pillows, which I like because I'm a soft-pillow person and so often hotels only have the really firm ones. It's the small comforts in life... I didn't notice any noise or issues like that. Didn't eat breakfast there, but the area was much larger than at many chains, and looked very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>This is a shout-out to Sara at the front desk, who was great. I came by the hotel early to see if I could check in yet -- Sara told me unfortunately no, since it was still 15 minutes before checkout time so the room wasn't ready from the last guest, but that I could call in an hour or two to see what the status was ("official" check-in time was 3 hours away). I drove back in an hour because I had nothing else to do, and Sara checked on things for me. The room still wasn't ready (not a surprise! I was early!), so she went above and beyond to see if there was a different room in the same configuration that would work. She checked the computer, talked to housekeeping, and finally got me a room more than two hours earlier than I ought to have expected. That might not sound like much, but I was staying in Houston due to a medical procedure, had had a very long day (even by 1pm), was depressed, etc. -- Sara's positivity, helpfulness, and compassion meant a lot. Thank you.
+The room was clean, and nicely decorated &amp; sized for the level of the hotel chain. There were both firm and soft pillows, which I like because I'm a soft-pillow person and so often hotels only have the really firm ones. It's the small comforts in life... I didn't notice...This is a shout-out to Sara at the front desk, who was great. I came by the hotel early to see if I could check in yet -- Sara told me unfortunately no, since it was still 15 minutes before checkout time so the room wasn't ready from the last guest, but that I could call in an hour or two to see what the status was ("official" check-in time was 3 hours away). I drove back in an hour because I had nothing else to do, and Sara checked on things for me. The room still wasn't ready (not a surprise! I was early!), so she went above and beyond to see if there was a different room in the same configuration that would work. She checked the computer, talked to housekeeping, and finally got me a room more than two hours earlier than I ought to have expected. That might not sound like much, but I was staying in Houston due to a medical procedure, had had a very long day (even by 1pm), was depressed, etc. -- Sara's positivity, helpfulness, and compassion meant a lot. Thank you.The room was clean, and nicely decorated &amp; sized for the level of the hotel chain. There were both firm and soft pillows, which I like because I'm a soft-pillow person and so often hotels only have the really firm ones. It's the small comforts in life... I didn't notice any noise or issues like that. Didn't eat breakfast there, but the area was much larger than at many chains, and looked very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r259684309-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259684309</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>The perfect stay that we'll always remember.</t>
+  </si>
+  <si>
+    <t>We came in from San Antonio for a quick spring break family getaway and happy we choose The Fairfield Inn.  Very clean and the staff was friendly.  Two thumbs up on the cleaning staff!!I would highly recommend The Fairfield &amp; would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r259098844-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259098844</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>Best Value</t>
+  </si>
+  <si>
+    <t>Been using this hotel as my second home for the past 2.5 years and enjoyed every stay. Majority of staff during that time remained constant with little turn over. Not having to experience new faces and names often through out the years, and to have consistently friendly, knowledgeable, and genuine appreciation for the guest is what made this property my habit. Plenty of locations to choose from on Energy Corridor (had to use some when I was too slow on making reservation) but the most difficult to achieve items to maintain that I must have, clean mold free bathrooms and great staff, have always been here.Thanks for the generosity and deliberate care,    David R.MoreShow less</t>
+  </si>
+  <si>
+    <t>Been using this hotel as my second home for the past 2.5 years and enjoyed every stay. Majority of staff during that time remained constant with little turn over. Not having to experience new faces and names often through out the years, and to have consistently friendly, knowledgeable, and genuine appreciation for the guest is what made this property my habit. Plenty of locations to choose from on Energy Corridor (had to use some when I was too slow on making reservation) but the most difficult to achieve items to maintain that I must have, clean mold free bathrooms and great staff, have always been here.Thanks for the generosity and deliberate care,    David R.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r255808552-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255808552</t>
+  </si>
+  <si>
+    <t>02/22/2015</t>
+  </si>
+  <si>
+    <t>Fantastic customer service!</t>
+  </si>
+  <si>
+    <t>The check in experience was wonderful.  Van was so nice, attentive and very informative.  We received "welcome" baskets - both my wife and myself.  I think that might have been because I am a Marriott Rewards Silver member, but my wife got one too.  Thank you so much, Van, and great customer service!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Energy Corridor/Katy Freeway, responded to this reviewResponded February 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2015</t>
+  </si>
+  <si>
+    <t>The check in experience was wonderful.  Van was so nice, attentive and very informative.  We received "welcome" baskets - both my wife and myself.  I think that might have been because I am a Marriott Rewards Silver member, but my wife got one too.  Thank you so much, Van, and great customer service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r248041929-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>248041929</t>
+  </si>
+  <si>
+    <t>01/07/2015</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for work, and it was a pleasant experience. The staff is great, very personable, and I did not have any issues. The hotel is very convenient and close if you are working/visiting one of the several oil and gas companies. I would not recommend this hotel if you are working downtown Houston however, as the traffic is very congested. On a last note, if you do stay at this hotel, ask for a room that is on the backside of the hotel as I-10 is busy at all hours of the night and at times you can hear the traffic going by.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r246438894-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246438894</t>
+  </si>
+  <si>
+    <t>12/29/2014</t>
+  </si>
+  <si>
+    <t>We Liked This Place</t>
+  </si>
+  <si>
+    <t>We chose this hotel because it was one of the least expensive, and it was close to the family we were visiting. Although we were disappointed that the room did not have a microwave and refrigerator, it was clean and relatively nice. Breakfast on Sunday was very pleasant and notcrowded at all. The hotel probably needs to purchase another waffle maker as that was the favorite of everyone. They had bacon, ham, waffles, hard-boiled eggs, bagels, yogurt, bread to toast, and a myriad of juices and cereals. This was one of the best breakfasts we've ever had at a hotel. Monday breakfast was much more crowded, but they added biscuits and gravy to the breakfast array.The only real problem was that the maid did not refill the roll of toilet paper after the first night, and we ran out and needed to use the facial tissue the second night. The hotel staff was all very pleasant. We will definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>We chose this hotel because it was one of the least expensive, and it was close to the family we were visiting. Although we were disappointed that the room did not have a microwave and refrigerator, it was clean and relatively nice. Breakfast on Sunday was very pleasant and notcrowded at all. The hotel probably needs to purchase another waffle maker as that was the favorite of everyone. They had bacon, ham, waffles, hard-boiled eggs, bagels, yogurt, bread to toast, and a myriad of juices and cereals. This was one of the best breakfasts we've ever had at a hotel. Monday breakfast was much more crowded, but they added biscuits and gravy to the breakfast array.The only real problem was that the maid did not refill the roll of toilet paper after the first night, and we ran out and needed to use the facial tissue the second night. The hotel staff was all very pleasant. We will definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r237596517-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237596517</t>
+  </si>
+  <si>
+    <t>11/02/2014</t>
+  </si>
+  <si>
+    <t>Best place, Wonderful location at Energy Corridor</t>
+  </si>
+  <si>
+    <t>Wonderful location that is very easy, convenient for work &amp; after hours. 
+LOCATION
+Next exit WEST of Tollway. It's quite location since this hotel sits behind another road frontage building on I-10. You can jump back on I-10 and take the ramp back onto Tollway for a quick 20 minute trip to catch a flight at IAH or roll straight into downtown Energy Plaza.
+VENUE
+Nothing comes close in mid-range $99-130 night price category. I visited 5 other hotels to scout options for future trips This one is the best pick. My room was wonderful, similar spacious size and furnishing to any king sleeping room at Hyatt, Westin or Embassy (sans second living area).  Very large bathroom a couple couple share without bumping into each other physically or mentally.
+Great decor &amp; presentation with the expected coffee maker, blow dryer, flatscreen tv, microwave, refrigerator, wifi. It was nice to see the cloths hang in a built-in wardrobe with desk along the outside wall.  My room faced south overlooking the pool with beautiful morning sun. Most of the parking is located on the southside.
+MEALS
+Breakfast is typical pre-made hotel items in a small area off the lobby. 24hr hot coffee, some eggs, sausage, bread stuff, cereal and fruits. Perfect for snacks but not a real breakfast. No worries since several options exist outside of the hotel along I-10 and nearby shopping centers or 10 minutes due south along Westhimer.
+I...Wonderful location that is very easy, convenient for work &amp; after hours. LOCATIONNext exit WEST of Tollway. It's quite location since this hotel sits behind another road frontage building on I-10. You can jump back on I-10 and take the ramp back onto Tollway for a quick 20 minute trip to catch a flight at IAH or roll straight into downtown Energy Plaza.VENUENothing comes close in mid-range $99-130 night price category. I visited 5 other hotels to scout options for future trips This one is the best pick. My room was wonderful, similar spacious size and furnishing to any king sleeping room at Hyatt, Westin or Embassy (sans second living area).  Very large bathroom a couple couple share without bumping into each other physically or mentally.Great decor &amp; presentation with the expected coffee maker, blow dryer, flatscreen tv, microwave, refrigerator, wifi. It was nice to see the cloths hang in a built-in wardrobe with desk along the outside wall.  My room faced south overlooking the pool with beautiful morning sun. Most of the parking is located on the southside.MEALSBreakfast is typical pre-made hotel items in a small area off the lobby. 24hr hot coffee, some eggs, sausage, bread stuff, cereal and fruits. Perfect for snacks but not a real breakfast. No worries since several options exist outside of the hotel along I-10 and nearby shopping centers or 10 minutes due south along Westhimer.I plan to stay here again.Meals.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Wonderful location that is very easy, convenient for work &amp; after hours. 
+LOCATION
+Next exit WEST of Tollway. It's quite location since this hotel sits behind another road frontage building on I-10. You can jump back on I-10 and take the ramp back onto Tollway for a quick 20 minute trip to catch a flight at IAH or roll straight into downtown Energy Plaza.
+VENUE
+Nothing comes close in mid-range $99-130 night price category. I visited 5 other hotels to scout options for future trips This one is the best pick. My room was wonderful, similar spacious size and furnishing to any king sleeping room at Hyatt, Westin or Embassy (sans second living area).  Very large bathroom a couple couple share without bumping into each other physically or mentally.
+Great decor &amp; presentation with the expected coffee maker, blow dryer, flatscreen tv, microwave, refrigerator, wifi. It was nice to see the cloths hang in a built-in wardrobe with desk along the outside wall.  My room faced south overlooking the pool with beautiful morning sun. Most of the parking is located on the southside.
+MEALS
+Breakfast is typical pre-made hotel items in a small area off the lobby. 24hr hot coffee, some eggs, sausage, bread stuff, cereal and fruits. Perfect for snacks but not a real breakfast. No worries since several options exist outside of the hotel along I-10 and nearby shopping centers or 10 minutes due south along Westhimer.
+I...Wonderful location that is very easy, convenient for work &amp; after hours. LOCATIONNext exit WEST of Tollway. It's quite location since this hotel sits behind another road frontage building on I-10. You can jump back on I-10 and take the ramp back onto Tollway for a quick 20 minute trip to catch a flight at IAH or roll straight into downtown Energy Plaza.VENUENothing comes close in mid-range $99-130 night price category. I visited 5 other hotels to scout options for future trips This one is the best pick. My room was wonderful, similar spacious size and furnishing to any king sleeping room at Hyatt, Westin or Embassy (sans second living area).  Very large bathroom a couple couple share without bumping into each other physically or mentally.Great decor &amp; presentation with the expected coffee maker, blow dryer, flatscreen tv, microwave, refrigerator, wifi. It was nice to see the cloths hang in a built-in wardrobe with desk along the outside wall.  My room faced south overlooking the pool with beautiful morning sun. Most of the parking is located on the southside.MEALSBreakfast is typical pre-made hotel items in a small area off the lobby. 24hr hot coffee, some eggs, sausage, bread stuff, cereal and fruits. Perfect for snacks but not a real breakfast. No worries since several options exist outside of the hotel along I-10 and nearby shopping centers or 10 minutes due south along Westhimer.I plan to stay here again.Meals.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r235639107-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235639107</t>
+  </si>
+  <si>
+    <t>10/21/2014</t>
+  </si>
+  <si>
+    <t>Nice family stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Took our children for a fun weekend and the hotel was a great stay. My kids really liked the indoor pool because that way they got to get in no matter what the weather was. Overall fun stay. We would recommend this hotel for a family stay.  The staff was friendly as well. </t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r235009110-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235009110</t>
+  </si>
+  <si>
+    <t>10/18/2014</t>
+  </si>
+  <si>
+    <t>Great time</t>
+  </si>
+  <si>
+    <t>My son had a competition in Houston and I wanted some place close to it since I'd never been there.  As soon as we arrived we were greeted with a warm smile and looking around I noticed the place was very clean.  Our room was a little small but for the time we spent in the room it was adequate.  The indoor pool and hot tub were a nice way to end our evening.  The breakfast was right on time, the lady who took care of the area was one of the nicest person I've meet and was always willing to get you something if they ran out, the tables were always spotless.  Can't forget the front desk associates, everyone was very pleasant and willing to assist with what ever you needed.  All n all we had an outstanding stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>My son had a competition in Houston and I wanted some place close to it since I'd never been there.  As soon as we arrived we were greeted with a warm smile and looking around I noticed the place was very clean.  Our room was a little small but for the time we spent in the room it was adequate.  The indoor pool and hot tub were a nice way to end our evening.  The breakfast was right on time, the lady who took care of the area was one of the nicest person I've meet and was always willing to get you something if they ran out, the tables were always spotless.  Can't forget the front desk associates, everyone was very pleasant and willing to assist with what ever you needed.  All n all we had an outstanding stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r222409999-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>222409999</t>
+  </si>
+  <si>
+    <t>08/17/2014</t>
+  </si>
+  <si>
+    <t>Nice place, great staff.</t>
+  </si>
+  <si>
+    <t>Used Trip Advisor to help pick this hotel. The reviews were right. Nice, Clean, close to food and highways but most of all the staff rocked. Van was so helpful. Good recommendations for lunch and dinner and just over all great experience.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r220727234-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>220727234</t>
+  </si>
+  <si>
+    <t>08/09/2014</t>
+  </si>
+  <si>
+    <t>Very pleasant &amp; helpful staff</t>
+  </si>
+  <si>
+    <t>The employees have a  great &amp; personal demeaner and really go the extra mile to make your stay pleasant &amp; worry free.  The pool area was vey quiet, clean, and the whirlpool was a great stress reliever.  Best treatment of any hotel I've ever stayed with. Thanks Ms. Van</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r219465843-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>219465843</t>
+  </si>
+  <si>
+    <t>08/04/2014</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>My husband and I was on a business trip in Houston and we stay at the Fairfield Inn and the customer service was Awesome. James at the front desk was a gem. Very knowledgeable about the area and recommend several places to eat. We received a welcome call from  the front desk just to say Hello , do you need anything. It made us feel special that the staff was thinking about us. I will recommend this hotel to my co-worker since we will be in Houston for next few months for client business meeting. I will return next month.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r214499884-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>214499884</t>
+  </si>
+  <si>
+    <t>07/09/2014</t>
+  </si>
+  <si>
+    <t>Van at the front desk!!!</t>
+  </si>
+  <si>
+    <t>My husband and I were so I impressed with how kind and accommodating Van was. She so very helpful especially when we explained our situation to her. I would recommend this property to any and everyone based on Van alone but the property itself is VERY clean and comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r213149997-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>213149997</t>
+  </si>
+  <si>
+    <t>07/01/2014</t>
+  </si>
+  <si>
+    <t>Amazing!</t>
+  </si>
+  <si>
+    <t>I want to thank Van and the whole staff that delivers a great service to the guests. All the ladies raking care of the room, the breakfast that is what I call excellence!!! Thank you again for such a great service.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r212085993-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>212085993</t>
+  </si>
+  <si>
+    <t>06/25/2014</t>
+  </si>
+  <si>
+    <t>Very pleasant and great customer sevice</t>
+  </si>
+  <si>
+    <t>Great stay in general.  The desk attendants were great and very professional.  They were able to give me the low down on some great local grub and point me in the direction to a good night out.  The room was clean, cold and had all the fixins.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r209726582-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209726582</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>These guys turned a bad trip around.</t>
+  </si>
+  <si>
+    <t>I was in Houston for training. It wasn't a company training, so the flight and hotel were paid for by a few sponsors. I was put up in the Extended Stay America for the first few nights. Stained carpet, severely rusted sink, countless dents in the refrigerator, decor from the late 70s, and a dozen other problems. The majority of the staff had no business in a customer service role. I couldn't get so much as a "hi" out of them. They'd just stop what they were doing and look at me until I spoke. We even bought our own can of Febreeze to get the musty smell out of the room. The roach squirming around on the floor was the last straw. We gathered our things, cancelled the remainder of the reservation, and checked out.
+We looked for absolutely any hotel. It was late and we stormed out, so we didn't really make a plan. The Fairfield Inn was just a bit down the same road. Vivian, the front desk associate when we arrived, was very empathetic when we explained our situation. Unfortunately, they were sold out that night, so we booked a room for four nights starting the following night, and stayed at the Motel 6 for that night, which, as sad as it is to say, was nicer than the Extended Stay America we were at before. She also gave us a couple complimentary drinks as an...I was in Houston for training. It wasn't a company training, so the flight and hotel were paid for by a few sponsors. I was put up in the Extended Stay America for the first few nights. Stained carpet, severely rusted sink, countless dents in the refrigerator, decor from the late 70s, and a dozen other problems. The majority of the staff had no business in a customer service role. I couldn't get so much as a "hi" out of them. They'd just stop what they were doing and look at me until I spoke. We even bought our own can of Febreeze to get the musty smell out of the room. The roach squirming around on the floor was the last straw. We gathered our things, cancelled the remainder of the reservation, and checked out.We looked for absolutely any hotel. It was late and we stormed out, so we didn't really make a plan. The Fairfield Inn was just a bit down the same road. Vivian, the front desk associate when we arrived, was very empathetic when we explained our situation. Unfortunately, they were sold out that night, so we booked a room for four nights starting the following night, and stayed at the Motel 6 for that night, which, as sad as it is to say, was nicer than the Extended Stay America we were at before. She also gave us a couple complimentary drinks as an apology. That warm reception really helped turn the night around.When we checked into our room the next night, it was such a marked improvement over the last two hotels. Room was clean, had a fresh smell, pillow DIDN'T feel like the inside of a scarecrow, and I was happy to be there. Remainder of the stay was downright pleasant. Every associate at the hotel I came in contact with was friendly and helpful. We ended up using my girlfriend's father's Marriott Rewards card to try to use points to help pay for the stay, because this impromptu hotel swap was something I really didn't have the money for. However, we added the card midway through our stay, and the points couldn't be used for nights that had already passed, so the gentleman at the front ended up giving us a discounted rate for those nights instead, which helped immensely.The one negative thing about this hotel, which really isn't their fault, is that the location is right by the highway in a business area, so there's not really anywhere you can walk. Houston doesn't have public transportation, so if you don't have a car, you're kinda stuck.It's unlikely that I'll be in Houston again, but if I am, this hotel will be my one and only choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I was in Houston for training. It wasn't a company training, so the flight and hotel were paid for by a few sponsors. I was put up in the Extended Stay America for the first few nights. Stained carpet, severely rusted sink, countless dents in the refrigerator, decor from the late 70s, and a dozen other problems. The majority of the staff had no business in a customer service role. I couldn't get so much as a "hi" out of them. They'd just stop what they were doing and look at me until I spoke. We even bought our own can of Febreeze to get the musty smell out of the room. The roach squirming around on the floor was the last straw. We gathered our things, cancelled the remainder of the reservation, and checked out.
+We looked for absolutely any hotel. It was late and we stormed out, so we didn't really make a plan. The Fairfield Inn was just a bit down the same road. Vivian, the front desk associate when we arrived, was very empathetic when we explained our situation. Unfortunately, they were sold out that night, so we booked a room for four nights starting the following night, and stayed at the Motel 6 for that night, which, as sad as it is to say, was nicer than the Extended Stay America we were at before. She also gave us a couple complimentary drinks as an...I was in Houston for training. It wasn't a company training, so the flight and hotel were paid for by a few sponsors. I was put up in the Extended Stay America for the first few nights. Stained carpet, severely rusted sink, countless dents in the refrigerator, decor from the late 70s, and a dozen other problems. The majority of the staff had no business in a customer service role. I couldn't get so much as a "hi" out of them. They'd just stop what they were doing and look at me until I spoke. We even bought our own can of Febreeze to get the musty smell out of the room. The roach squirming around on the floor was the last straw. We gathered our things, cancelled the remainder of the reservation, and checked out.We looked for absolutely any hotel. It was late and we stormed out, so we didn't really make a plan. The Fairfield Inn was just a bit down the same road. Vivian, the front desk associate when we arrived, was very empathetic when we explained our situation. Unfortunately, they were sold out that night, so we booked a room for four nights starting the following night, and stayed at the Motel 6 for that night, which, as sad as it is to say, was nicer than the Extended Stay America we were at before. She also gave us a couple complimentary drinks as an apology. That warm reception really helped turn the night around.When we checked into our room the next night, it was such a marked improvement over the last two hotels. Room was clean, had a fresh smell, pillow DIDN'T feel like the inside of a scarecrow, and I was happy to be there. Remainder of the stay was downright pleasant. Every associate at the hotel I came in contact with was friendly and helpful. We ended up using my girlfriend's father's Marriott Rewards card to try to use points to help pay for the stay, because this impromptu hotel swap was something I really didn't have the money for. However, we added the card midway through our stay, and the points couldn't be used for nights that had already passed, so the gentleman at the front ended up giving us a discounted rate for those nights instead, which helped immensely.The one negative thing about this hotel, which really isn't their fault, is that the location is right by the highway in a business area, so there's not really anywhere you can walk. Houston doesn't have public transportation, so if you don't have a car, you're kinda stuck.It's unlikely that I'll be in Houston again, but if I am, this hotel will be my one and only choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r208611460-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>208611460</t>
+  </si>
+  <si>
+    <t>06/02/2014</t>
+  </si>
+  <si>
+    <t>Wonderful Staff!!!!</t>
+  </si>
+  <si>
+    <t>We stayed at the Fairfield Inn &amp; Suites in Houston on our road trip back to San Antonio. From the moment we walked in we were greeted with a big smile and "welcome to your new home" by the lady at the front desk! Everything about this motel was great! All staff members were helpful and pleasant. I will recommend this motel to everyone!</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r205281644-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205281644</t>
+  </si>
+  <si>
+    <t>05/12/2014</t>
+  </si>
+  <si>
+    <t>A great choice!</t>
+  </si>
+  <si>
+    <t>My daughter and I had a fantastic experience during our stay this past weekend. We can't say enough good things...all staff were friendly and accommodating, clean room/bathroom, parking was always available, and more. We will definitely stay here again when we're in the area and will recommend this hotel to friends and family without hesitation.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r200363151-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200363151</t>
+  </si>
+  <si>
+    <t>04/08/2014</t>
+  </si>
+  <si>
+    <t>Best Fairfield Inn in Houston!!! Hands Down!</t>
+  </si>
+  <si>
+    <t>Best hotel I would Recommend especially if you care for being around a great staff! The lady ms. Van at the front desk is so nice it's unbelievable! She always made sure I was ok and smiling...It's a dream spending a night, week, or month here! The breakfast is always cooked at its best! Housekeeping is very nice and Hotel is #Clean (which is what I absolutely LOVE) about this Hotel !!-Mr. Bernard</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r199472797-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199472797</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>Fairfield Inn &amp; Suites has a staff that aims to please guest</t>
+  </si>
+  <si>
+    <t>Most people check in, stay for a day or for a while, check out and go about life without the slightest notion of the names of those who were of service to them during their stay. Perhaps there are people who do take notice of who the employees were but I was not one of them until I stayed at the Fairfield Inn &amp; Suites I10 West/ Energy in Houston Texas. When I was in Houston I met people who went out of their way to make sure my stay there was an enjoyable one. I left with the names of several employees in my mind. If you are ever there ask the general manager Kyle when’s the best time to take advance of the hot tub - just wanted to drop a name because he was special and he was one of several employees who made me feel like a special guest while I was there.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Most people check in, stay for a day or for a while, check out and go about life without the slightest notion of the names of those who were of service to them during their stay. Perhaps there are people who do take notice of who the employees were but I was not one of them until I stayed at the Fairfield Inn &amp; Suites I10 West/ Energy in Houston Texas. When I was in Houston I met people who went out of their way to make sure my stay there was an enjoyable one. I left with the names of several employees in my mind. If you are ever there ask the general manager Kyle when’s the best time to take advance of the hot tub - just wanted to drop a name because he was special and he was one of several employees who made me feel like a special guest while I was there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r198931971-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198931971</t>
+  </si>
+  <si>
+    <t>03/27/2014</t>
+  </si>
+  <si>
+    <t>The service at this hotel was EXCELLENT!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The service at this hotel was great! Van Valentine at the front desk is awesome. Anything that I needed she made sure I got it. Her supervisor Matthew Campbell was exceptional. Everyone at this hotel has unparalleled customer service, Even Nora the housekeeper made sure there was extra towels in the bathroom. I wouldn't stay anywhere else. I recommend staying here! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r198299717-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198299717</t>
+  </si>
+  <si>
+    <t>03/22/2014</t>
+  </si>
+  <si>
+    <t>Home away from home.</t>
+  </si>
+  <si>
+    <t>This was my very first time visiting Houston, Texas and my friend and I wanted to stay at a Hotel centrally located near the highway for easy travel. Although I arrived late at night due to traveling from Dallas, the front desk agent greeted me with a smile and burst of energy just as if I were a regular 3 pm check-in. The room was very neat and clean and we loved the size of the TV! The housekeepers were nice and accommodated us to our needs. This will definitely be our go-to hotel the next time we visit Houston!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r198063261-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198063261</t>
+  </si>
+  <si>
+    <t>03/20/2014</t>
+  </si>
+  <si>
+    <t>Unparalleled Hospitality</t>
+  </si>
+  <si>
+    <t>Hospitality without affectation is rare these days, especially when staff are constantly hounded to get better survey results by their evil corporate overlords.  Despite this, the front desk employees at this Fairfield were genuinely sincere and went far beyond the help I needed.
+Matt Campbell and Van greeted me with a smile when I arrived.  In fact, Matt interrupted a call to attend to me right away.,,and I wasn't even an overnight guest.  See, I was staying at the "full service" Marriott down the street, but they lack a washer and dryer.  On my way to Poland for business, I wanted to clean my gym clothes without spending a king's ransom on dry cleaning.  In my mind it was going to be a tedious last task before heading to the airport, but with an offer of refreshment, free WiFi and a comfortable place to noodle on my computer, it was almost enjoyable to do laundry.
+Matt and Van quickly set me up, provided the laundry facility for free, which was wholly unnecessary but impressive.  It made my day.  Congenial by nature, Van and Matt gave me an access card, asked me about my stay, thanked me for my loyalty and checked in on me.
+If this is the sort of treatment that moochers like me receive, just imagine how it must be for guests?1  The space is clean, there are several free social events, including a "movie night" and the...Hospitality without affectation is rare these days, especially when staff are constantly hounded to get better survey results by their evil corporate overlords.  Despite this, the front desk employees at this Fairfield were genuinely sincere and went far beyond the help I needed.Matt Campbell and Van greeted me with a smile when I arrived.  In fact, Matt interrupted a call to attend to me right away.,,and I wasn't even an overnight guest.  See, I was staying at the "full service" Marriott down the street, but they lack a washer and dryer.  On my way to Poland for business, I wanted to clean my gym clothes without spending a king's ransom on dry cleaning.  In my mind it was going to be a tedious last task before heading to the airport, but with an offer of refreshment, free WiFi and a comfortable place to noodle on my computer, it was almost enjoyable to do laundry.Matt and Van quickly set me up, provided the laundry facility for free, which was wholly unnecessary but impressive.  It made my day.  Congenial by nature, Van and Matt gave me an access card, asked me about my stay, thanked me for my loyalty and checked in on me.If this is the sort of treatment that moochers like me receive, just imagine how it must be for guests?1  The space is clean, there are several free social events, including a "movie night" and the workout facility is in order.The Energy Corridor can be a bleak place without a lot of surrounding places to hold your interest. The Fairfield is a bright spot.  My guess is that so may patrons have no idea how lucky they are.  "Pearls before swine!" as the saying goes.So, do yourself a favor, stop shopping around and stay at this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hospitality without affectation is rare these days, especially when staff are constantly hounded to get better survey results by their evil corporate overlords.  Despite this, the front desk employees at this Fairfield were genuinely sincere and went far beyond the help I needed.
+Matt Campbell and Van greeted me with a smile when I arrived.  In fact, Matt interrupted a call to attend to me right away.,,and I wasn't even an overnight guest.  See, I was staying at the "full service" Marriott down the street, but they lack a washer and dryer.  On my way to Poland for business, I wanted to clean my gym clothes without spending a king's ransom on dry cleaning.  In my mind it was going to be a tedious last task before heading to the airport, but with an offer of refreshment, free WiFi and a comfortable place to noodle on my computer, it was almost enjoyable to do laundry.
+Matt and Van quickly set me up, provided the laundry facility for free, which was wholly unnecessary but impressive.  It made my day.  Congenial by nature, Van and Matt gave me an access card, asked me about my stay, thanked me for my loyalty and checked in on me.
+If this is the sort of treatment that moochers like me receive, just imagine how it must be for guests?1  The space is clean, there are several free social events, including a "movie night" and the...Hospitality without affectation is rare these days, especially when staff are constantly hounded to get better survey results by their evil corporate overlords.  Despite this, the front desk employees at this Fairfield were genuinely sincere and went far beyond the help I needed.Matt Campbell and Van greeted me with a smile when I arrived.  In fact, Matt interrupted a call to attend to me right away.,,and I wasn't even an overnight guest.  See, I was staying at the "full service" Marriott down the street, but they lack a washer and dryer.  On my way to Poland for business, I wanted to clean my gym clothes without spending a king's ransom on dry cleaning.  In my mind it was going to be a tedious last task before heading to the airport, but with an offer of refreshment, free WiFi and a comfortable place to noodle on my computer, it was almost enjoyable to do laundry.Matt and Van quickly set me up, provided the laundry facility for free, which was wholly unnecessary but impressive.  It made my day.  Congenial by nature, Van and Matt gave me an access card, asked me about my stay, thanked me for my loyalty and checked in on me.If this is the sort of treatment that moochers like me receive, just imagine how it must be for guests?1  The space is clean, there are several free social events, including a "movie night" and the workout facility is in order.The Energy Corridor can be a bleak place without a lot of surrounding places to hold your interest. The Fairfield is a bright spot.  My guess is that so may patrons have no idea how lucky they are.  "Pearls before swine!" as the saying goes.So, do yourself a favor, stop shopping around and stay at this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r198062721-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198062721</t>
+  </si>
+  <si>
+    <t>Simply Awesome!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I travel a lot and have to say hands down this is the friendliest place I have ever stayed!!! Super accommodating, very friendly, absolutely the best!!!Rooms were clean and size was great! I really can't say enough about this place!!!! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r196068776-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196068776</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>Staff was great! Breakfast host was the friendliest ever! Nice food selection, receptionists were friendly and the cookies were yummy! Hot tub was a little cold but overall great stay!!! I'll definitely be returning this summer!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r194632744-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194632744</t>
+  </si>
+  <si>
+    <t>02/19/2014</t>
+  </si>
+  <si>
+    <t>Weekends may be a No-No</t>
+  </si>
+  <si>
+    <t>Upon checking in for a 2 nights stay (Fri-Sat) the front desk staff &amp; manager were welcoming.  I asked for a roller bed per their website but none were available BOTH nights. Next day, no maid services were provided. When inquired I was informed that no one showed up to work, that this hotel is known as a family hotel and its like this most weekends... Therefore, sheets were not changed, no clean towels, trash was full and toilet paper eventually ran out over night.  After asking for towels, the manager came by our room after 10pm to deliver towels and take care of the trash. This caused late bathing as we had to get up early the next morning.  As side from the negatives, breakfast was awesome!MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Energy Corridor/Katy Freeway, responded to this reviewResponded February 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2014</t>
+  </si>
+  <si>
+    <t>Upon checking in for a 2 nights stay (Fri-Sat) the front desk staff &amp; manager were welcoming.  I asked for a roller bed per their website but none were available BOTH nights. Next day, no maid services were provided. When inquired I was informed that no one showed up to work, that this hotel is known as a family hotel and its like this most weekends... Therefore, sheets were not changed, no clean towels, trash was full and toilet paper eventually ran out over night.  After asking for towels, the manager came by our room after 10pm to deliver towels and take care of the trash. This caused late bathing as we had to get up early the next morning.  As side from the negatives, breakfast was awesome!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r194216810-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194216810</t>
+  </si>
+  <si>
+    <t>02/15/2014</t>
+  </si>
+  <si>
+    <t>Don't bother wasting your money</t>
+  </si>
+  <si>
+    <t>NEVER seen a motel so out of control! 30 kids in the pool only 3 adults. throwing each other in the air so much nobody could swim. The pool is only 3.5 ft deep. Kids bleeding, yelling, running...I told the front desk and he said there is nothing he could do about it. no fridge or microwave. Way  too over pricedMoreShow less</t>
+  </si>
+  <si>
+    <t>NEVER seen a motel so out of control! 30 kids in the pool only 3 adults. throwing each other in the air so much nobody could swim. The pool is only 3.5 ft deep. Kids bleeding, yelling, running...I told the front desk and he said there is nothing he could do about it. no fridge or microwave. Way  too over pricedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r191221957-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>191221957</t>
+  </si>
+  <si>
+    <t>01/18/2014</t>
+  </si>
+  <si>
+    <t>The most friendly staff ever</t>
+  </si>
+  <si>
+    <t>We had a family group of 14 and the front desk staff had us feeling at home in minutes.  Van was the best at rememebering everyones name after check in.   She took care of everything, big or small.  Everyone in our group was commenting about her performance the rest of the week</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r190342357-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>190342357</t>
+  </si>
+  <si>
+    <t>01/09/2014</t>
+  </si>
+  <si>
+    <t>Highly Recommend</t>
+  </si>
+  <si>
+    <t>I have been staying at this hotel regularly for over 18 months and can highly recommend it.  You will not find a friendlier, more accommodating staff anywhere - from the front desk, dining area staff to housekeeping.  They go above and beyond to be sure my stay is as close to home as possible.  The rooms are always spotless, more than sufficiently stocked with aminities and they gladly  honor any special request if at all possible.  This hotel is conveniently located to all my clients and there's  a wide variety of dining choices  nearby.Being a lady traveling alone, safety is important to me - this was one of the criteria that had to be met when choosing where to stay for business travel.  I havenever been disappointed in my choice of this hotel, but always pleased with each stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been staying at this hotel regularly for over 18 months and can highly recommend it.  You will not find a friendlier, more accommodating staff anywhere - from the front desk, dining area staff to housekeeping.  They go above and beyond to be sure my stay is as close to home as possible.  The rooms are always spotless, more than sufficiently stocked with aminities and they gladly  honor any special request if at all possible.  This hotel is conveniently located to all my clients and there's  a wide variety of dining choices  nearby.Being a lady traveling alone, safety is important to me - this was one of the criteria that had to be met when choosing where to stay for business travel.  I havenever been disappointed in my choice of this hotel, but always pleased with each stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r190092473-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>190092473</t>
+  </si>
+  <si>
+    <t>01/07/2014</t>
+  </si>
+  <si>
+    <t>Good hotel for families!</t>
+  </si>
+  <si>
+    <t>We stayed here as a family and I was pleasantly surprised by this little gem of a hotel in such a big city. Very friendly staff. DeeDee the breakfast host and Matthew the manager entertained and played with our children in the breakfast area. The room was clean and reasonably priced. We will come back and stay at this hotel again!</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r188680587-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>188680587</t>
+  </si>
+  <si>
+    <t>12/27/2013</t>
+  </si>
+  <si>
+    <t>Very Good Hotel for Business or Pleasure</t>
+  </si>
+  <si>
+    <t>Very good hotel with basic services to enjoy your stay. Very neat rooms (daily clean-up), working A/C, 24/7 internet service, complimentary breakfast with varieties including fruits, swimming pool, gym, business centre where you can search and print directions and documents, the suites have microwave &amp; refriedgeratior. Above all, they have wonderful staff at the Front Desk who provide professional service with passion (e.g. Van Valentine).</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r187174447-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187174447</t>
+  </si>
+  <si>
+    <t>12/09/2013</t>
+  </si>
+  <si>
+    <t>Good Location in the Energy Corridor</t>
+  </si>
+  <si>
+    <t>We stayed for 4 nights total.  Our room was a little older and dated, but very clean.  The beds were comfortable and the heating/AC worked great.  Breakfast was included - the breakfast was the typical Fairfield breakfast.  Having breakfast included makes mornings so much easier when traveling.  DeeDee who took care of breakfast at the hotel was very friendly,  she even took peoples plates away from their tables when they were done eating.  Unlike in some big cities, parking at this hotel is complementary.We would definitely stay at this hotel again.  If you are a AAA member, the weekend rates are very reasonable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r186864081-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186864081</t>
+  </si>
+  <si>
+    <t>12/05/2013</t>
+  </si>
+  <si>
+    <t>good hotel</t>
+  </si>
+  <si>
+    <t>The hotel was very clean, comfortable ( room with king size bed and sofa bed)in safe area. Hotel staffs are very courteous. Free breakfast was good: french toasts, wafles, fruits. Reasonable price. Indoor pool.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r183461676-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183461676</t>
+  </si>
+  <si>
+    <t>11/03/2013</t>
+  </si>
+  <si>
+    <t>Needs a little help</t>
+  </si>
+  <si>
+    <t>Hotel is nice. Pool area with indoor hottub. Hot tub needed real cover on skimmer. It was missing &amp; right by steps where someone could have stepped right through plastic lid. No warning sign or tape either. They said they ordered a lid for it. Pool store is on same road. Free breakfast was good &amp; very nice lady working it. Bacon &amp; great French toast &amp; eggs. Beds were comfy but my sheet had a stain &amp; pillow case had slight dots of mildew. No frig or microwave in room. And only ice machine is on first floor. It's in a nice safe area. MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Energy Corridor/Katy Freeway, responded to this reviewResponded November 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2013</t>
+  </si>
+  <si>
+    <t>Hotel is nice. Pool area with indoor hottub. Hot tub needed real cover on skimmer. It was missing &amp; right by steps where someone could have stepped right through plastic lid. No warning sign or tape either. They said they ordered a lid for it. Pool store is on same road. Free breakfast was good &amp; very nice lady working it. Bacon &amp; great French toast &amp; eggs. Beds were comfy but my sheet had a stain &amp; pillow case had slight dots of mildew. No frig or microwave in room. And only ice machine is on first floor. It's in a nice safe area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r181587206-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>181587206</t>
+  </si>
+  <si>
+    <t>10/19/2013</t>
+  </si>
+  <si>
+    <t>Hard to find after dark.</t>
+  </si>
+  <si>
+    <t>Arrived after dark and the sign was not turned on so we had difficulty finding. We had a room with 2 queen beds.  The beds were uncomfortable, one of them swagged in the middle the other was like sleeping on floor.  We were on the side of I-10 so there was a lot of road noise.Everything was clean and the breakfast was good. The lady at desk when we checked out was very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Energy Corridor/Katy Freeway, responded to this reviewResponded October 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2013</t>
+  </si>
+  <si>
+    <t>Arrived after dark and the sign was not turned on so we had difficulty finding. We had a room with 2 queen beds.  The beds were uncomfortable, one of them swagged in the middle the other was like sleeping on floor.  We were on the side of I-10 so there was a lot of road noise.Everything was clean and the breakfast was good. The lady at desk when we checked out was very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r171015898-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>171015898</t>
+  </si>
+  <si>
+    <t>08/06/2013</t>
+  </si>
+  <si>
+    <t>Very good, no real complaints.</t>
+  </si>
+  <si>
+    <t>Good location, right by the highway.  Room was clean, internet worked fine.  Breakfast was good each morning.  Staff behind the desk was helpful directing me to a local Best Buy.   I'd stay there again.  Only minor complaint was the cable TV went down for a day and a half while I was there, but that was more of a neighborhood issue apparently and I wasn't in the hotel all that much to be bothered by it.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Energy Corridor/Katy Freeway, responded to this reviewResponded August 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2013</t>
+  </si>
+  <si>
+    <t>Good location, right by the highway.  Room was clean, internet worked fine.  Breakfast was good each morning.  Staff behind the desk was helpful directing me to a local Best Buy.   I'd stay there again.  Only minor complaint was the cable TV went down for a day and a half while I was there, but that was more of a neighborhood issue apparently and I wasn't in the hotel all that much to be bothered by it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r159203148-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159203148</t>
+  </si>
+  <si>
+    <t>04/29/2013</t>
+  </si>
+  <si>
+    <t>Electronic Key for my room given to another guest!</t>
+  </si>
+  <si>
+    <t>I stayed at this location for a week.  The other hotels were already booked during the time period I needed.  It was ok.  The embassy suites a little further down on the opposite side of I-10 looks very nice.  I was disappointed my room had no fridge or micro.  I should have asked in advance, but thought it would have both because the previous Fairfield I stayed at did.  They also don't have any to put in your room if you ask (some hotels do).  All of the staff was nice throughout my stay.  There is only one slow elevator for this hotel.  I know it's only a 3 floor hotel, but 2 elevators would be nice.  The hotel is located right off the freeway, so it's easy to jump on the congested I-10 or 6.  The area is ok, not great.  You have to drive a few miles for a grocery store, gas station, or restaurant.  I never had any parking issues.  There was always an available spot.  While I only ate breakfast twice, they had a few options from hot to cold breakfasts.  They only have one ice machine and it's on the first floor.  It would be nice if they had one on every floor.  The swimming pool and jacuzzi look clean, although I did not use them.  The fitness room was clean and always had fresh towels.  They have free wireless internet and a decent cable...I stayed at this location for a week.  The other hotels were already booked during the time period I needed.  It was ok.  The embassy suites a little further down on the opposite side of I-10 looks very nice.  I was disappointed my room had no fridge or micro.  I should have asked in advance, but thought it would have both because the previous Fairfield I stayed at did.  They also don't have any to put in your room if you ask (some hotels do).  All of the staff was nice throughout my stay.  There is only one slow elevator for this hotel.  I know it's only a 3 floor hotel, but 2 elevators would be nice.  The hotel is located right off the freeway, so it's easy to jump on the congested I-10 or 6.  The area is ok, not great.  You have to drive a few miles for a grocery store, gas station, or restaurant.  I never had any parking issues.  There was always an available spot.  While I only ate breakfast twice, they had a few options from hot to cold breakfasts.  They only have one ice machine and it's on the first floor.  It would be nice if they had one on every floor.  The swimming pool and jacuzzi look clean, although I did not use them.  The fitness room was clean and always had fresh towels.  They have free wireless internet and a decent cable line-up.Lastly, one thing I did not like - after picking up dinner one night and walking to my room, a man says he was just assigned to my room and shows me his keycard holder which has my room number written on it!!  My key still worked, and I didn't allow him to try his.  Imagine if I had been in the shower and not locked the inside locks of my door!  What an unwelcome surprise that would have been.  He went downstairs to talk to the front desk, but they never said anything to me about it.  So now I always make sure the locks on the inside of my door are locked as soon as I walk in.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>HoustonSales, Director of Sales at Fairfield Inn &amp; Suites Houston Energy Corridor/Katy Freeway, responded to this reviewResponded June 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2013</t>
+  </si>
+  <si>
+    <t>I stayed at this location for a week.  The other hotels were already booked during the time period I needed.  It was ok.  The embassy suites a little further down on the opposite side of I-10 looks very nice.  I was disappointed my room had no fridge or micro.  I should have asked in advance, but thought it would have both because the previous Fairfield I stayed at did.  They also don't have any to put in your room if you ask (some hotels do).  All of the staff was nice throughout my stay.  There is only one slow elevator for this hotel.  I know it's only a 3 floor hotel, but 2 elevators would be nice.  The hotel is located right off the freeway, so it's easy to jump on the congested I-10 or 6.  The area is ok, not great.  You have to drive a few miles for a grocery store, gas station, or restaurant.  I never had any parking issues.  There was always an available spot.  While I only ate breakfast twice, they had a few options from hot to cold breakfasts.  They only have one ice machine and it's on the first floor.  It would be nice if they had one on every floor.  The swimming pool and jacuzzi look clean, although I did not use them.  The fitness room was clean and always had fresh towels.  They have free wireless internet and a decent cable...I stayed at this location for a week.  The other hotels were already booked during the time period I needed.  It was ok.  The embassy suites a little further down on the opposite side of I-10 looks very nice.  I was disappointed my room had no fridge or micro.  I should have asked in advance, but thought it would have both because the previous Fairfield I stayed at did.  They also don't have any to put in your room if you ask (some hotels do).  All of the staff was nice throughout my stay.  There is only one slow elevator for this hotel.  I know it's only a 3 floor hotel, but 2 elevators would be nice.  The hotel is located right off the freeway, so it's easy to jump on the congested I-10 or 6.  The area is ok, not great.  You have to drive a few miles for a grocery store, gas station, or restaurant.  I never had any parking issues.  There was always an available spot.  While I only ate breakfast twice, they had a few options from hot to cold breakfasts.  They only have one ice machine and it's on the first floor.  It would be nice if they had one on every floor.  The swimming pool and jacuzzi look clean, although I did not use them.  The fitness room was clean and always had fresh towels.  They have free wireless internet and a decent cable line-up.Lastly, one thing I did not like - after picking up dinner one night and walking to my room, a man says he was just assigned to my room and shows me his keycard holder which has my room number written on it!!  My key still worked, and I didn't allow him to try his.  Imagine if I had been in the shower and not locked the inside locks of my door!  What an unwelcome surprise that would have been.  He went downstairs to talk to the front desk, but they never said anything to me about it.  So now I always make sure the locks on the inside of my door are locked as soon as I walk in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r155544126-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155544126</t>
+  </si>
+  <si>
+    <t>03/24/2013</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>I stayed for one week traveling for work, I had an excellent stay. The room was clean, staff was freindly and helpful. The breakfast was good (eggs,sausage,waffles,bagels, yogert,cereal), they have an indoor pool, hot tub, and gym all very clean. I would recommend and would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>HoustonSales, Director of Sales at Fairfield Inn &amp; Suites Houston Energy Corridor/Katy Freeway, responded to this reviewResponded March 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2013</t>
+  </si>
+  <si>
+    <t>I stayed for one week traveling for work, I had an excellent stay. The room was clean, staff was freindly and helpful. The breakfast was good (eggs,sausage,waffles,bagels, yogert,cereal), they have an indoor pool, hot tub, and gym all very clean. I would recommend and would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r152480705-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152480705</t>
+  </si>
+  <si>
+    <t>02/18/2013</t>
+  </si>
+  <si>
+    <t>Frequent Business Traveler's View</t>
+  </si>
+  <si>
+    <t>From October 2012 every week from Monday to Thursday I am  traveling to Houston for my client work. I am happy to share - this Fairfield Inn is one of the best locations for business travevers in terms of convenience, access to highway and corporate clients in energy corridor area. Front desk staff is friendly and ready to assist whenever needed. I'd certainly recommend for short or long term business travelers but please call ahead as rooms go very fast....MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>HoustonSales, Director of Sales at Fairfield Inn &amp; Suites Houston Energy Corridor/Katy Freeway, responded to this reviewResponded February 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2013</t>
+  </si>
+  <si>
+    <t>From October 2012 every week from Monday to Thursday I am  traveling to Houston for my client work. I am happy to share - this Fairfield Inn is one of the best locations for business travevers in terms of convenience, access to highway and corporate clients in energy corridor area. Front desk staff is friendly and ready to assist whenever needed. I'd certainly recommend for short or long term business travelers but please call ahead as rooms go very fast....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r151928573-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151928573</t>
+  </si>
+  <si>
+    <t>02/11/2013</t>
+  </si>
+  <si>
+    <t>Great Place to stay</t>
+  </si>
+  <si>
+    <t>I have been doing weekly travel from Cincinnati to Houston for a project work since last 12 weeks.  I really my enjoy my stay at Fairfield Inn - Katy Freeway. Rooms are clean and staff is very good. Specially i would like to mention the front desk manager- Moazzam. He is extremely coordial and always helps me as i am new to Houston. He goes out of the way to help the guests. Overall very good experienceMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>I have been doing weekly travel from Cincinnati to Houston for a project work since last 12 weeks.  I really my enjoy my stay at Fairfield Inn - Katy Freeway. Rooms are clean and staff is very good. Specially i would like to mention the front desk manager- Moazzam. He is extremely coordial and always helps me as i am new to Houston. He goes out of the way to help the guests. Overall very good experienceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r148637898-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148637898</t>
+  </si>
+  <si>
+    <t>01/02/2013</t>
+  </si>
+  <si>
+    <t>Excellent staff!</t>
+  </si>
+  <si>
+    <t>Went to Houston for the weekend with my family and stayed here. The I-10 area is convenient  to shops and restaurants. The hotel is a basic Fairfield Inn and pretty standard. What is not standard is the employees. There were so friendly and helpful. They went out of there way to assist us with a small situation we had while there. Depending on what you're going to do while in Houston, this could be a great or not so great location, it worked well for us, but the people are what really make this place! Nice, clean rooms. Would go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>HoustonSales, Director of Sales at Fairfield Inn &amp; Suites Houston Energy Corridor/Katy Freeway, responded to this reviewResponded January 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2013</t>
+  </si>
+  <si>
+    <t>Went to Houston for the weekend with my family and stayed here. The I-10 area is convenient  to shops and restaurants. The hotel is a basic Fairfield Inn and pretty standard. What is not standard is the employees. There were so friendly and helpful. They went out of there way to assist us with a small situation we had while there. Depending on what you're going to do while in Houston, this could be a great or not so great location, it worked well for us, but the people are what really make this place! Nice, clean rooms. Would go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r146214513-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146214513</t>
+  </si>
+  <si>
+    <t>11/26/2012</t>
+  </si>
+  <si>
+    <t>Although I did not end up staying here, their General Manger, Heather Cullen, was incredibly accommodating when she realized my mistake in booking (I needed an extended stay hotel).  She worked with Hotels.com in ensuring I received a full refund.  If I ever need to stay in Houston again without the necessitation of a kitchen I am assuredly going to stay here.  I didn't step foot into a room but the lobby was immaculate.Thank you, Heather.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>HoustonSales, Director of Sales at Fairfield Inn &amp; Suites Houston Energy Corridor/Katy Freeway, responded to this reviewResponded November 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2012</t>
+  </si>
+  <si>
+    <t>Although I did not end up staying here, their General Manger, Heather Cullen, was incredibly accommodating when she realized my mistake in booking (I needed an extended stay hotel).  She worked with Hotels.com in ensuring I received a full refund.  If I ever need to stay in Houston again without the necessitation of a kitchen I am assuredly going to stay here.  I didn't step foot into a room but the lobby was immaculate.Thank you, Heather.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r137189478-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137189478</t>
+  </si>
+  <si>
+    <t>08/14/2012</t>
+  </si>
+  <si>
+    <t>More than I expected!</t>
+  </si>
+  <si>
+    <t>I have stayed in 4 and 5 star hotels around the country but have never had staff as friendly and helpful as the staff of the Fairfield Inn! Everyone was willing to go the extra mile to be accomodating. The evening desk clerk, James was especially so. Whoever does the hiring for this location has done an excellent job! The hotel was meticulously clean in every area.The rooms were quiet,well appointed and comfortable. Much more than expected for the price. The only disappointment was that there was no microwave or fridge as had been stated on their website.If I ever find myself in Houston again I will definitely return.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>HoustonSales, Director of Sales at Fairfield Inn &amp; Suites Houston Energy Corridor/Katy Freeway, responded to this reviewResponded August 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2012</t>
+  </si>
+  <si>
+    <t>I have stayed in 4 and 5 star hotels around the country but have never had staff as friendly and helpful as the staff of the Fairfield Inn! Everyone was willing to go the extra mile to be accomodating. The evening desk clerk, James was especially so. Whoever does the hiring for this location has done an excellent job! The hotel was meticulously clean in every area.The rooms were quiet,well appointed and comfortable. Much more than expected for the price. The only disappointment was that there was no microwave or fridge as had been stated on their website.If I ever find myself in Houston again I will definitely return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r127208504-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127208504</t>
+  </si>
+  <si>
+    <t>04/03/2012</t>
+  </si>
+  <si>
+    <t>Perfectly acceptable</t>
+  </si>
+  <si>
+    <t>This hotel is near Houston's Energy corridor.  Most hotels in this area assume patrons are business people on expense accounts, the rates can be $200 or more a night.  This hotel is half that and is in the same area.Granted all Fairfield hotels are virtually indentical, you could be in Houston, Tulsa or Chicago and not know the difference until you look out the window.  That said, they are always nice, clean, reasonably priced and serve a nice breakfast.The staff here was awesome and more helpful than I would ever expect.Great choice!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>HoustonSales, Director of Sales at Fairfield Inn &amp; Suites Houston Energy Corridor/Katy Freeway, responded to this reviewResponded April 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2012</t>
+  </si>
+  <si>
+    <t>This hotel is near Houston's Energy corridor.  Most hotels in this area assume patrons are business people on expense accounts, the rates can be $200 or more a night.  This hotel is half that and is in the same area.Granted all Fairfield hotels are virtually indentical, you could be in Houston, Tulsa or Chicago and not know the difference until you look out the window.  That said, they are always nice, clean, reasonably priced and serve a nice breakfast.The staff here was awesome and more helpful than I would ever expect.Great choice!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r125663543-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125663543</t>
+  </si>
+  <si>
+    <t>03/05/2012</t>
+  </si>
+  <si>
+    <t>Good value, clean, simple marriott property</t>
+  </si>
+  <si>
+    <t>This was an inexpensive hotel near a business meeting near the Houston/Katy border. The hotel was small, clean and efficient. Staff was nice, breakfast was decent. The gym was small - only two treadmills an elliptical and a few weights, but better than nothing. There is also a pool. Good value for the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>HoustonSales, Director of Sales at Fairfield Inn &amp; Suites Houston Energy Corridor/Katy Freeway, responded to this reviewResponded March 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2012</t>
+  </si>
+  <si>
+    <t>This was an inexpensive hotel near a business meeting near the Houston/Katy border. The hotel was small, clean and efficient. Staff was nice, breakfast was decent. The gym was small - only two treadmills an elliptical and a few weights, but better than nothing. There is also a pool. Good value for the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r120341956-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120341956</t>
+  </si>
+  <si>
+    <t>11/08/2011</t>
+  </si>
+  <si>
+    <t>Nothing special</t>
+  </si>
+  <si>
+    <t>I stay at a lot of Marriots and their chain for work.  I stayed here for a business trip.  It was at the lower end of the spectrum for the Marriott chain.  The rooms were fine, the people were nice, but there wasnt much too impressive about the place overall.  I didnt rent a car as I figured food was within walking distance.  I should have rented a car.  There wasnt much worth eating later close by.  I ended up hoofing a very long walk to a steak house/ Italian place down the road.  The houston humidity about killed me!  Then after I filled my belly I had to hoof it back.  Nothing special but I cant complain too much either.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>HoustonSales, Director of Sales at Fairfield Inn &amp; Suites Houston Energy Corridor/Katy Freeway, responded to this reviewResponded January 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2012</t>
+  </si>
+  <si>
+    <t>I stay at a lot of Marriots and their chain for work.  I stayed here for a business trip.  It was at the lower end of the spectrum for the Marriott chain.  The rooms were fine, the people were nice, but there wasnt much too impressive about the place overall.  I didnt rent a car as I figured food was within walking distance.  I should have rented a car.  There wasnt much worth eating later close by.  I ended up hoofing a very long walk to a steak house/ Italian place down the road.  The houston humidity about killed me!  Then after I filled my belly I had to hoof it back.  Nothing special but I cant complain too much either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r117870782-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117870782</t>
+  </si>
+  <si>
+    <t>09/09/2011</t>
+  </si>
+  <si>
+    <t>Stayed at this Hotel on a solo business trip.  Hotel was clean and the beds and sleep quality was good.  The breakfast was poor, both quality and selection.  They were out of several items as indicated by a sign saying that they were temporarily out, so I do not know what should have been there.  Had breakfast at a nearby Waffle House one day and at Einstein's Bagels another instead.The cost of the Hotel was reasonable so I am satisfied with what I received for the price.  One minor issue was that the security bolt in the first room I was assigned had been ripped off so that the door could not be secured.  I asked to change rooms since I did not feel comfortable with just the lock on the doorknob.  I was given another room and all was well.There are several good restaurantsaclose to the Hotel.  One of the best TexMex in Houston, Loupe's Tortilla, A very good Chinese Restaurant, North China and a Thai restaurant which was voted Houston's best Thai in 2010, don't remember the name.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>Stayed at this Hotel on a solo business trip.  Hotel was clean and the beds and sleep quality was good.  The breakfast was poor, both quality and selection.  They were out of several items as indicated by a sign saying that they were temporarily out, so I do not know what should have been there.  Had breakfast at a nearby Waffle House one day and at Einstein's Bagels another instead.The cost of the Hotel was reasonable so I am satisfied with what I received for the price.  One minor issue was that the security bolt in the first room I was assigned had been ripped off so that the door could not be secured.  I asked to change rooms since I did not feel comfortable with just the lock on the doorknob.  I was given another room and all was well.There are several good restaurantsaclose to the Hotel.  One of the best TexMex in Houston, Loupe's Tortilla, A very good Chinese Restaurant, North China and a Thai restaurant which was voted Houston's best Thai in 2010, don't remember the name.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r83153075-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>83153075</t>
+  </si>
+  <si>
+    <t>10/12/2010</t>
+  </si>
+  <si>
+    <t>Good value, but couldn't sleep!</t>
+  </si>
+  <si>
+    <t>When we arrived, the lobby was quite busy and so the check in clerk was rushed.  We were given quick attention, but with little in the way of making us feel welcome.  We were placed in the middle of several famiies who were there for a football game and stayed up late drinking.  Between them and the traffic noise from I-10, we could barely sleep!</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r19291937-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>19291937</t>
+  </si>
+  <si>
+    <t>08/24/2008</t>
+  </si>
+  <si>
+    <t>Fair for a Fairfield.</t>
+  </si>
+  <si>
+    <t>Very Average. Nothing to write home about but they do have nice beds. I now stay at the Courtyard near the airport which is a great hotel. If the hotel is in the area you need to be then it will do the job, but I would not go out of my way to go to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>TharaldsonCorporate, Hotel Management Company at Fairfield Inn &amp; Suites Houston Energy Corridor/Katy Freeway, responded to this reviewResponded October 1, 2009</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2009</t>
+  </si>
+  <si>
+    <t>Very Average. Nothing to write home about but they do have nice beds. I now stay at the Courtyard near the airport which is a great hotel. If the hotel is in the area you need to be then it will do the job, but I would not go out of my way to go to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r10075308-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>10075308</t>
+  </si>
+  <si>
+    <t>10/13/2007</t>
+  </si>
+  <si>
+    <t>Not bad for the Bucks Spent - A bit old</t>
+  </si>
+  <si>
+    <t>Have stayed at this hotel about four (4) times this year, most recently this month.  The hotel is clean and bed comfortable.  The hotel is most in need of an update to decor and furniture -- it has been there a while.  The rate was very reasonable at only $99 for a weeknight -- subtantially less than many of the other hotels in the I-10 West Houston area.  The free breakfast in the morning offered a pretty good selection - coffee, juice, fresh fruit, cold cerals, oatmeal, waffles, etc.   The traffic around the hotel in the AM is brutal -- frontage road is backed up and their is construction on Loop 6.  Good news is there are some nice restaurants not too far from the hotel (Lupe Tortillas, etc.)MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>Have stayed at this hotel about four (4) times this year, most recently this month.  The hotel is clean and bed comfortable.  The hotel is most in need of an update to decor and furniture -- it has been there a while.  The rate was very reasonable at only $99 for a weeknight -- subtantially less than many of the other hotels in the I-10 West Houston area.  The free breakfast in the morning offered a pretty good selection - coffee, juice, fresh fruit, cold cerals, oatmeal, waffles, etc.   The traffic around the hotel in the AM is brutal -- frontage road is backed up and their is construction on Loop 6.  Good news is there are some nice restaurants not too far from the hotel (Lupe Tortillas, etc.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223147-r7552126-Fairfield_Inn_Suites_Houston_Energy_Corridor_Katy_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>7552126</t>
+  </si>
+  <si>
+    <t>05/05/2007</t>
+  </si>
+  <si>
+    <t>Okay hotel...</t>
+  </si>
+  <si>
+    <t>OKAY hotel.  Looks run down on the outside, but the rooms are fine.  A bit expensive the night I stayed there.  $95 + tax = $111.I thought that was high for a Fairfield Inn in this area.  I moved to the Holiday Inn Express in Sugar Land.  The Holiday Inn was a bit nicer and a bit less expensive.   If you stay at the Fairfield for less than $69, it is fine.  For more than this... well, only if you can't find a better deal.</t>
+  </si>
+  <si>
+    <t>May 2007</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2234,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2266,5268 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>123</v>
+      </c>
+      <c r="X10" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>131</v>
+      </c>
+      <c r="X11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>140</v>
+      </c>
+      <c r="X12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>148</v>
+      </c>
+      <c r="O13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>154</v>
+      </c>
+      <c r="O14" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>154</v>
+      </c>
+      <c r="O15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>165</v>
+      </c>
+      <c r="O16" t="s">
+        <v>166</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" t="s">
+        <v>171</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>172</v>
+      </c>
+      <c r="O17" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s">
+        <v>178</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>179</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" t="s">
+        <v>184</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>185</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" t="s">
+        <v>189</v>
+      </c>
+      <c r="K20" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" t="s">
+        <v>191</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>192</v>
+      </c>
+      <c r="O20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" t="s">
+        <v>197</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>165</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>204</v>
+      </c>
+      <c r="O22" t="s">
+        <v>87</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" t="s">
+        <v>207</v>
+      </c>
+      <c r="K23" t="s">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s">
+        <v>209</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>210</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" t="s">
+        <v>214</v>
+      </c>
+      <c r="K24" t="s">
+        <v>215</v>
+      </c>
+      <c r="L24" t="s">
+        <v>216</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>210</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>222</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>223</v>
+      </c>
+      <c r="X25" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>227</v>
+      </c>
+      <c r="J26" t="s">
+        <v>228</v>
+      </c>
+      <c r="K26" t="s">
+        <v>229</v>
+      </c>
+      <c r="L26" t="s">
+        <v>230</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>222</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>231</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>232</v>
+      </c>
+      <c r="J27" t="s">
+        <v>233</v>
+      </c>
+      <c r="K27" t="s">
+        <v>234</v>
+      </c>
+      <c r="L27" t="s">
+        <v>235</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>236</v>
+      </c>
+      <c r="O27" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>237</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>238</v>
+      </c>
+      <c r="J28" t="s">
+        <v>239</v>
+      </c>
+      <c r="K28" t="s">
+        <v>240</v>
+      </c>
+      <c r="L28" t="s">
+        <v>241</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>236</v>
+      </c>
+      <c r="O28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>243</v>
+      </c>
+      <c r="J29" t="s">
+        <v>244</v>
+      </c>
+      <c r="K29" t="s">
+        <v>245</v>
+      </c>
+      <c r="L29" t="s">
+        <v>246</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>247</v>
+      </c>
+      <c r="O29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>248</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>249</v>
+      </c>
+      <c r="J30" t="s">
+        <v>250</v>
+      </c>
+      <c r="K30" t="s">
+        <v>251</v>
+      </c>
+      <c r="L30" t="s">
+        <v>252</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>247</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>253</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>254</v>
+      </c>
+      <c r="J31" t="s">
+        <v>255</v>
+      </c>
+      <c r="K31" t="s">
+        <v>256</v>
+      </c>
+      <c r="L31" t="s">
+        <v>257</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>247</v>
+      </c>
+      <c r="O31" t="s">
+        <v>87</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>258</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>259</v>
+      </c>
+      <c r="J32" t="s">
+        <v>260</v>
+      </c>
+      <c r="K32" t="s">
+        <v>261</v>
+      </c>
+      <c r="L32" t="s">
+        <v>262</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>263</v>
+      </c>
+      <c r="O32" t="s">
+        <v>87</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>265</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>266</v>
+      </c>
+      <c r="J33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K33" t="s">
+        <v>268</v>
+      </c>
+      <c r="L33" t="s">
+        <v>269</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>270</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>271</v>
+      </c>
+      <c r="J34" t="s">
+        <v>272</v>
+      </c>
+      <c r="K34" t="s">
+        <v>273</v>
+      </c>
+      <c r="L34" t="s">
+        <v>274</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>263</v>
+      </c>
+      <c r="O34" t="s">
+        <v>71</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>276</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" t="s">
+        <v>278</v>
+      </c>
+      <c r="K35" t="s">
+        <v>279</v>
+      </c>
+      <c r="L35" t="s">
+        <v>280</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>281</v>
+      </c>
+      <c r="O35" t="s">
+        <v>87</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>282</v>
+      </c>
+      <c r="X35" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>285</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>286</v>
+      </c>
+      <c r="J36" t="s">
+        <v>287</v>
+      </c>
+      <c r="K36" t="s">
+        <v>288</v>
+      </c>
+      <c r="L36" t="s">
+        <v>289</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>290</v>
+      </c>
+      <c r="O36" t="s">
+        <v>71</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>291</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>292</v>
+      </c>
+      <c r="J37" t="s">
+        <v>293</v>
+      </c>
+      <c r="K37" t="s">
+        <v>294</v>
+      </c>
+      <c r="L37" t="s">
+        <v>295</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>296</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>298</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>299</v>
+      </c>
+      <c r="J38" t="s">
+        <v>300</v>
+      </c>
+      <c r="K38" t="s">
+        <v>301</v>
+      </c>
+      <c r="L38" t="s">
+        <v>302</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>303</v>
+      </c>
+      <c r="O38" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>305</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>306</v>
+      </c>
+      <c r="J39" t="s">
+        <v>307</v>
+      </c>
+      <c r="K39" t="s">
+        <v>308</v>
+      </c>
+      <c r="L39" t="s">
+        <v>309</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>310</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>311</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>312</v>
+      </c>
+      <c r="J40" t="s">
+        <v>313</v>
+      </c>
+      <c r="K40" t="s">
+        <v>314</v>
+      </c>
+      <c r="L40" t="s">
+        <v>315</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>316</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>318</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>319</v>
+      </c>
+      <c r="J41" t="s">
+        <v>320</v>
+      </c>
+      <c r="K41" t="s">
+        <v>321</v>
+      </c>
+      <c r="L41" t="s">
+        <v>322</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>323</v>
+      </c>
+      <c r="O41" t="s">
+        <v>71</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>324</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>325</v>
+      </c>
+      <c r="J42" t="s">
+        <v>326</v>
+      </c>
+      <c r="K42" t="s">
+        <v>327</v>
+      </c>
+      <c r="L42" t="s">
+        <v>328</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>329</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>330</v>
+      </c>
+      <c r="J43" t="s">
+        <v>331</v>
+      </c>
+      <c r="K43" t="s">
+        <v>332</v>
+      </c>
+      <c r="L43" t="s">
+        <v>333</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>334</v>
+      </c>
+      <c r="O43" t="s">
+        <v>71</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>335</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>336</v>
+      </c>
+      <c r="J44" t="s">
+        <v>337</v>
+      </c>
+      <c r="K44" t="s">
+        <v>338</v>
+      </c>
+      <c r="L44" t="s">
+        <v>339</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>334</v>
+      </c>
+      <c r="O44" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>340</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>341</v>
+      </c>
+      <c r="J45" t="s">
+        <v>342</v>
+      </c>
+      <c r="K45" t="s">
+        <v>343</v>
+      </c>
+      <c r="L45" t="s">
+        <v>344</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>345</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>346</v>
+      </c>
+      <c r="J46" t="s">
+        <v>347</v>
+      </c>
+      <c r="K46" t="s">
+        <v>348</v>
+      </c>
+      <c r="L46" t="s">
+        <v>349</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>350</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>351</v>
+      </c>
+      <c r="J47" t="s">
+        <v>352</v>
+      </c>
+      <c r="K47" t="s">
+        <v>353</v>
+      </c>
+      <c r="L47" t="s">
+        <v>354</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>355</v>
+      </c>
+      <c r="O47" t="s">
+        <v>71</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>357</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>358</v>
+      </c>
+      <c r="J48" t="s">
+        <v>359</v>
+      </c>
+      <c r="K48" t="s">
+        <v>360</v>
+      </c>
+      <c r="L48" t="s">
+        <v>361</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>362</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>363</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>364</v>
+      </c>
+      <c r="J49" t="s">
+        <v>365</v>
+      </c>
+      <c r="K49" t="s">
+        <v>366</v>
+      </c>
+      <c r="L49" t="s">
+        <v>367</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>362</v>
+      </c>
+      <c r="O49" t="s">
+        <v>71</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>368</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>369</v>
+      </c>
+      <c r="J50" t="s">
+        <v>370</v>
+      </c>
+      <c r="K50" t="s">
+        <v>371</v>
+      </c>
+      <c r="L50" t="s">
+        <v>372</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>310</v>
+      </c>
+      <c r="O50" t="s">
+        <v>87</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>373</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>374</v>
+      </c>
+      <c r="J51" t="s">
+        <v>375</v>
+      </c>
+      <c r="K51" t="s">
+        <v>376</v>
+      </c>
+      <c r="L51" t="s">
+        <v>377</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>378</v>
+      </c>
+      <c r="O51" t="s">
+        <v>62</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>380</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>381</v>
+      </c>
+      <c r="J52" t="s">
+        <v>382</v>
+      </c>
+      <c r="K52" t="s">
+        <v>383</v>
+      </c>
+      <c r="L52" t="s">
+        <v>384</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>385</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>386</v>
+      </c>
+      <c r="J53" t="s">
+        <v>387</v>
+      </c>
+      <c r="K53" t="s">
+        <v>388</v>
+      </c>
+      <c r="L53" t="s">
+        <v>389</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>378</v>
+      </c>
+      <c r="O53" t="s">
+        <v>166</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>390</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>391</v>
+      </c>
+      <c r="J54" t="s">
+        <v>392</v>
+      </c>
+      <c r="K54" t="s">
+        <v>393</v>
+      </c>
+      <c r="L54" t="s">
+        <v>394</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>378</v>
+      </c>
+      <c r="O54" t="s">
+        <v>71</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>396</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>397</v>
+      </c>
+      <c r="J55" t="s">
+        <v>392</v>
+      </c>
+      <c r="K55" t="s">
+        <v>398</v>
+      </c>
+      <c r="L55" t="s">
+        <v>399</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>400</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>401</v>
+      </c>
+      <c r="J56" t="s">
+        <v>402</v>
+      </c>
+      <c r="K56" t="s">
+        <v>403</v>
+      </c>
+      <c r="L56" t="s">
+        <v>404</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>405</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>406</v>
+      </c>
+      <c r="J57" t="s">
+        <v>407</v>
+      </c>
+      <c r="K57" t="s">
+        <v>408</v>
+      </c>
+      <c r="L57" t="s">
+        <v>409</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>303</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>410</v>
+      </c>
+      <c r="X57" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>413</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>414</v>
+      </c>
+      <c r="J58" t="s">
+        <v>415</v>
+      </c>
+      <c r="K58" t="s">
+        <v>416</v>
+      </c>
+      <c r="L58" t="s">
+        <v>417</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>410</v>
+      </c>
+      <c r="X58" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>419</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>420</v>
+      </c>
+      <c r="J59" t="s">
+        <v>421</v>
+      </c>
+      <c r="K59" t="s">
+        <v>422</v>
+      </c>
+      <c r="L59" t="s">
+        <v>423</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>424</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>425</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>426</v>
+      </c>
+      <c r="J60" t="s">
+        <v>427</v>
+      </c>
+      <c r="K60" t="s">
+        <v>428</v>
+      </c>
+      <c r="L60" t="s">
+        <v>429</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>424</v>
+      </c>
+      <c r="O60" t="s">
+        <v>71</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>431</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>432</v>
+      </c>
+      <c r="J61" t="s">
+        <v>433</v>
+      </c>
+      <c r="K61" t="s">
+        <v>434</v>
+      </c>
+      <c r="L61" t="s">
+        <v>435</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>436</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>437</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>438</v>
+      </c>
+      <c r="J62" t="s">
+        <v>439</v>
+      </c>
+      <c r="K62" t="s">
+        <v>440</v>
+      </c>
+      <c r="L62" t="s">
+        <v>441</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>436</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>442</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>443</v>
+      </c>
+      <c r="J63" t="s">
+        <v>444</v>
+      </c>
+      <c r="K63" t="s">
+        <v>445</v>
+      </c>
+      <c r="L63" t="s">
+        <v>446</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>436</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>447</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>448</v>
+      </c>
+      <c r="J64" t="s">
+        <v>449</v>
+      </c>
+      <c r="K64" t="s">
+        <v>450</v>
+      </c>
+      <c r="L64" t="s">
+        <v>451</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>452</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>453</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>454</v>
+      </c>
+      <c r="J65" t="s">
+        <v>455</v>
+      </c>
+      <c r="K65" t="s">
+        <v>456</v>
+      </c>
+      <c r="L65" t="s">
+        <v>457</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>458</v>
+      </c>
+      <c r="X65" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>461</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>462</v>
+      </c>
+      <c r="J66" t="s">
+        <v>463</v>
+      </c>
+      <c r="K66" t="s">
+        <v>464</v>
+      </c>
+      <c r="L66" t="s">
+        <v>465</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>466</v>
+      </c>
+      <c r="O66" t="s">
+        <v>71</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>467</v>
+      </c>
+      <c r="X66" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>470</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>471</v>
+      </c>
+      <c r="J67" t="s">
+        <v>472</v>
+      </c>
+      <c r="K67" t="s">
+        <v>473</v>
+      </c>
+      <c r="L67" t="s">
+        <v>474</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>475</v>
+      </c>
+      <c r="O67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>476</v>
+      </c>
+      <c r="X67" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>479</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>480</v>
+      </c>
+      <c r="J68" t="s">
+        <v>481</v>
+      </c>
+      <c r="K68" t="s">
+        <v>482</v>
+      </c>
+      <c r="L68" t="s">
+        <v>483</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>484</v>
+      </c>
+      <c r="O68" t="s">
+        <v>71</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>485</v>
+      </c>
+      <c r="X68" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>488</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>489</v>
+      </c>
+      <c r="J69" t="s">
+        <v>490</v>
+      </c>
+      <c r="K69" t="s">
+        <v>491</v>
+      </c>
+      <c r="L69" t="s">
+        <v>492</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>493</v>
+      </c>
+      <c r="O69" t="s">
+        <v>71</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>494</v>
+      </c>
+      <c r="X69" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>497</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>498</v>
+      </c>
+      <c r="J70" t="s">
+        <v>499</v>
+      </c>
+      <c r="K70" t="s">
+        <v>500</v>
+      </c>
+      <c r="L70" t="s">
+        <v>501</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>502</v>
+      </c>
+      <c r="O70" t="s">
+        <v>71</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>503</v>
+      </c>
+      <c r="X70" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>506</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>507</v>
+      </c>
+      <c r="J71" t="s">
+        <v>508</v>
+      </c>
+      <c r="K71" t="s">
+        <v>509</v>
+      </c>
+      <c r="L71" t="s">
+        <v>510</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>511</v>
+      </c>
+      <c r="O71" t="s">
+        <v>71</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>503</v>
+      </c>
+      <c r="X71" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>513</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>514</v>
+      </c>
+      <c r="J72" t="s">
+        <v>515</v>
+      </c>
+      <c r="K72" t="s">
+        <v>516</v>
+      </c>
+      <c r="L72" t="s">
+        <v>517</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>518</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>519</v>
+      </c>
+      <c r="X72" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>522</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>523</v>
+      </c>
+      <c r="J73" t="s">
+        <v>524</v>
+      </c>
+      <c r="K73" t="s">
+        <v>288</v>
+      </c>
+      <c r="L73" t="s">
+        <v>525</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>526</v>
+      </c>
+      <c r="O73" t="s">
+        <v>87</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>527</v>
+      </c>
+      <c r="X73" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>530</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>531</v>
+      </c>
+      <c r="J74" t="s">
+        <v>532</v>
+      </c>
+      <c r="K74" t="s">
+        <v>533</v>
+      </c>
+      <c r="L74" t="s">
+        <v>534</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>535</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>536</v>
+      </c>
+      <c r="X74" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>539</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>540</v>
+      </c>
+      <c r="J75" t="s">
+        <v>541</v>
+      </c>
+      <c r="K75" t="s">
+        <v>542</v>
+      </c>
+      <c r="L75" t="s">
+        <v>543</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>544</v>
+      </c>
+      <c r="O75" t="s">
+        <v>62</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>545</v>
+      </c>
+      <c r="X75" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>548</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>549</v>
+      </c>
+      <c r="J76" t="s">
+        <v>550</v>
+      </c>
+      <c r="K76" t="s">
+        <v>551</v>
+      </c>
+      <c r="L76" t="s">
+        <v>552</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>553</v>
+      </c>
+      <c r="O76" t="s">
+        <v>71</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>554</v>
+      </c>
+      <c r="X76" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>557</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>558</v>
+      </c>
+      <c r="J77" t="s">
+        <v>559</v>
+      </c>
+      <c r="K77" t="s">
+        <v>560</v>
+      </c>
+      <c r="L77" t="s">
+        <v>561</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>562</v>
+      </c>
+      <c r="O77" t="s">
+        <v>71</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>563</v>
+      </c>
+      <c r="X77" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>566</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>567</v>
+      </c>
+      <c r="J78" t="s">
+        <v>568</v>
+      </c>
+      <c r="K78" t="s">
+        <v>137</v>
+      </c>
+      <c r="L78" t="s">
+        <v>569</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>570</v>
+      </c>
+      <c r="O78" t="s">
+        <v>71</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>572</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>573</v>
+      </c>
+      <c r="J79" t="s">
+        <v>574</v>
+      </c>
+      <c r="K79" t="s">
+        <v>575</v>
+      </c>
+      <c r="L79" t="s">
+        <v>576</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>577</v>
+      </c>
+      <c r="O79" t="s">
+        <v>87</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>2</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>578</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>579</v>
+      </c>
+      <c r="J80" t="s">
+        <v>580</v>
+      </c>
+      <c r="K80" t="s">
+        <v>581</v>
+      </c>
+      <c r="L80" t="s">
+        <v>582</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>583</v>
+      </c>
+      <c r="X80" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>586</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>587</v>
+      </c>
+      <c r="J81" t="s">
+        <v>588</v>
+      </c>
+      <c r="K81" t="s">
+        <v>589</v>
+      </c>
+      <c r="L81" t="s">
+        <v>590</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>591</v>
+      </c>
+      <c r="O81" t="s">
+        <v>71</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>593</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>594</v>
+      </c>
+      <c r="J82" t="s">
+        <v>595</v>
+      </c>
+      <c r="K82" t="s">
+        <v>596</v>
+      </c>
+      <c r="L82" t="s">
+        <v>597</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>598</v>
+      </c>
+      <c r="O82" t="s">
+        <v>71</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>
